--- a/Scripts/templates/SkillSheetTemplate.xlsx
+++ b/Scripts/templates/SkillSheetTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MetokiMasato\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MetokiMasato\Desktop\SkillSheetWorkForder\Scripts\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D1130E-D57E-47C5-A72D-C7B3FD9B6FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB423EA7-F2D7-40EE-8039-C3B0FD09EDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新スキルシート" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">記載例!$A$1:$AP$99</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">新スキルシート!$A$1:$AQ$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">記載例!$34:$34</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">新スキルシート!$35:$35</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">新スキルシート!$36:$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{DE098EBA-6DCB-46FF-A9A1-8C1784BECEA2}">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{DE098EBA-6DCB-46FF-A9A1-8C1784BECEA2}">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{E7F1993E-A505-4A59-92CB-CEAABC5E1E2E}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{E7F1993E-A505-4A59-92CB-CEAABC5E1E2E}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{ED92E8CD-5708-44AE-A352-72EB0CE6366F}">
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{ED92E8CD-5708-44AE-A352-72EB0CE6366F}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T38" authorId="0" shapeId="0" xr:uid="{C5528DB7-3EE3-4F41-BECB-BE5B20183949}">
+    <comment ref="T39" authorId="0" shapeId="0" xr:uid="{C5528DB7-3EE3-4F41-BECB-BE5B20183949}">
       <text>
         <r>
           <rPr>
@@ -9048,6 +9048,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -9055,9 +9085,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9377,33 +9404,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -10883,8 +10883,8 @@
   </sheetPr>
   <dimension ref="B1:BA245"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ81" sqref="AJ81:AL81"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="18.75"/>
@@ -11387,46 +11387,46 @@
       <c r="AO14" s="146"/>
     </row>
     <row r="15" spans="2:53">
-      <c r="B15" s="187"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="188"/>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="189"/>
-      <c r="S15" s="189"/>
-      <c r="T15" s="189"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="188"/>
-      <c r="X15" s="188"/>
-      <c r="Y15" s="188"/>
-      <c r="Z15" s="188"/>
-      <c r="AA15" s="188"/>
-      <c r="AB15" s="189"/>
-      <c r="AC15" s="189"/>
-      <c r="AD15" s="189"/>
-      <c r="AE15" s="190"/>
-      <c r="AF15" s="187"/>
-      <c r="AG15" s="188"/>
-      <c r="AH15" s="188"/>
-      <c r="AI15" s="188"/>
-      <c r="AJ15" s="188"/>
-      <c r="AK15" s="188"/>
-      <c r="AL15" s="189"/>
-      <c r="AM15" s="189"/>
-      <c r="AN15" s="189"/>
-      <c r="AO15" s="190"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="197"/>
+      <c r="R15" s="198"/>
+      <c r="S15" s="198"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="199"/>
+      <c r="V15" s="196"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="198"/>
+      <c r="AC15" s="198"/>
+      <c r="AD15" s="198"/>
+      <c r="AE15" s="199"/>
+      <c r="AF15" s="196"/>
+      <c r="AG15" s="197"/>
+      <c r="AH15" s="197"/>
+      <c r="AI15" s="197"/>
+      <c r="AJ15" s="197"/>
+      <c r="AK15" s="197"/>
+      <c r="AL15" s="198"/>
+      <c r="AM15" s="198"/>
+      <c r="AN15" s="198"/>
+      <c r="AO15" s="199"/>
       <c r="AP15" s="15"/>
     </row>
     <row r="16" spans="2:53">
@@ -11687,802 +11687,808 @@
       <c r="AO21" s="150"/>
       <c r="AP21" s="15"/>
     </row>
-    <row r="22" spans="2:42" ht="19.5" thickBot="1">
-      <c r="B22" s="159"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="163"/>
-      <c r="T22" s="163"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="162"/>
-      <c r="AC22" s="163"/>
-      <c r="AD22" s="163"/>
-      <c r="AE22" s="164"/>
-      <c r="AF22" s="159"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="160"/>
-      <c r="AK22" s="161"/>
-      <c r="AL22" s="162"/>
-      <c r="AM22" s="163"/>
-      <c r="AN22" s="163"/>
-      <c r="AO22" s="164"/>
+    <row r="22" spans="2:42">
+      <c r="B22" s="147"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="167"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="169"/>
+      <c r="T22" s="169"/>
+      <c r="U22" s="170"/>
+      <c r="V22" s="147"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="150"/>
+      <c r="AF22" s="147"/>
+      <c r="AG22" s="148"/>
+      <c r="AH22" s="148"/>
+      <c r="AI22" s="148"/>
+      <c r="AJ22" s="148"/>
+      <c r="AK22" s="148"/>
+      <c r="AL22" s="149"/>
+      <c r="AM22" s="149"/>
+      <c r="AN22" s="149"/>
+      <c r="AO22" s="150"/>
       <c r="AP22" s="15"/>
     </row>
-    <row r="23" spans="2:42" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-    </row>
-    <row r="24" spans="2:42">
-      <c r="B24" s="151" t="s">
+    <row r="23" spans="2:42">
+      <c r="B23" s="147"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="166"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="169"/>
+      <c r="T23" s="169"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="150"/>
+      <c r="AF23" s="147"/>
+      <c r="AG23" s="148"/>
+      <c r="AH23" s="148"/>
+      <c r="AI23" s="148"/>
+      <c r="AJ23" s="148"/>
+      <c r="AK23" s="148"/>
+      <c r="AL23" s="149"/>
+      <c r="AM23" s="149"/>
+      <c r="AN23" s="149"/>
+      <c r="AO23" s="150"/>
+      <c r="AP23" s="15"/>
+    </row>
+    <row r="24" spans="2:42" ht="19.5" thickBot="1">
+      <c r="B24" s="159"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="164"/>
+      <c r="V24" s="159"/>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="161"/>
+      <c r="AB24" s="162"/>
+      <c r="AC24" s="163"/>
+      <c r="AD24" s="163"/>
+      <c r="AE24" s="164"/>
+      <c r="AF24" s="159"/>
+      <c r="AG24" s="160"/>
+      <c r="AH24" s="160"/>
+      <c r="AI24" s="160"/>
+      <c r="AJ24" s="160"/>
+      <c r="AK24" s="161"/>
+      <c r="AL24" s="162"/>
+      <c r="AM24" s="163"/>
+      <c r="AN24" s="163"/>
+      <c r="AO24" s="164"/>
+      <c r="AP24" s="15"/>
+    </row>
+    <row r="25" spans="2:42" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+    </row>
+    <row r="26" spans="2:42">
+      <c r="B26" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="152"/>
-      <c r="W24" s="152"/>
-      <c r="X24" s="152"/>
-      <c r="Y24" s="152"/>
-      <c r="Z24" s="152"/>
-      <c r="AA24" s="152"/>
-      <c r="AB24" s="152"/>
-      <c r="AC24" s="152"/>
-      <c r="AD24" s="152"/>
-      <c r="AE24" s="152"/>
-      <c r="AF24" s="152"/>
-      <c r="AG24" s="152"/>
-      <c r="AH24" s="152"/>
-      <c r="AI24" s="152"/>
-      <c r="AJ24" s="152"/>
-      <c r="AK24" s="152"/>
-      <c r="AL24" s="152"/>
-      <c r="AM24" s="152"/>
-      <c r="AN24" s="152"/>
-      <c r="AO24" s="153"/>
-    </row>
-    <row r="25" spans="2:42">
-      <c r="B25" s="178"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
-      <c r="N25" s="179"/>
-      <c r="O25" s="179"/>
-      <c r="P25" s="179"/>
-      <c r="Q25" s="179"/>
-      <c r="R25" s="179"/>
-      <c r="S25" s="179"/>
-      <c r="T25" s="179"/>
-      <c r="U25" s="179"/>
-      <c r="V25" s="179"/>
-      <c r="W25" s="179"/>
-      <c r="X25" s="179"/>
-      <c r="Y25" s="179"/>
-      <c r="Z25" s="179"/>
-      <c r="AA25" s="179"/>
-      <c r="AB25" s="179"/>
-      <c r="AC25" s="179"/>
-      <c r="AD25" s="179"/>
-      <c r="AE25" s="179"/>
-      <c r="AF25" s="179"/>
-      <c r="AG25" s="179"/>
-      <c r="AH25" s="179"/>
-      <c r="AI25" s="179"/>
-      <c r="AJ25" s="179"/>
-      <c r="AK25" s="179"/>
-      <c r="AL25" s="179"/>
-      <c r="AM25" s="179"/>
-      <c r="AN25" s="179"/>
-      <c r="AO25" s="180"/>
-    </row>
-    <row r="26" spans="2:42">
-      <c r="B26" s="181"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="182"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="182"/>
-      <c r="S26" s="182"/>
-      <c r="T26" s="182"/>
-      <c r="U26" s="182"/>
-      <c r="V26" s="182"/>
-      <c r="W26" s="182"/>
-      <c r="X26" s="182"/>
-      <c r="Y26" s="182"/>
-      <c r="Z26" s="182"/>
-      <c r="AA26" s="182"/>
-      <c r="AB26" s="182"/>
-      <c r="AC26" s="182"/>
-      <c r="AD26" s="182"/>
-      <c r="AE26" s="182"/>
-      <c r="AF26" s="182"/>
-      <c r="AG26" s="182"/>
-      <c r="AH26" s="182"/>
-      <c r="AI26" s="182"/>
-      <c r="AJ26" s="182"/>
-      <c r="AK26" s="182"/>
-      <c r="AL26" s="182"/>
-      <c r="AM26" s="182"/>
-      <c r="AN26" s="182"/>
-      <c r="AO26" s="183"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="152"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="152"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="152"/>
+      <c r="AC26" s="152"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="152"/>
+      <c r="AF26" s="152"/>
+      <c r="AG26" s="152"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="152"/>
+      <c r="AJ26" s="152"/>
+      <c r="AK26" s="152"/>
+      <c r="AL26" s="152"/>
+      <c r="AM26" s="152"/>
+      <c r="AN26" s="152"/>
+      <c r="AO26" s="153"/>
     </row>
     <row r="27" spans="2:42">
-      <c r="B27" s="181"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="182"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="182"/>
-      <c r="S27" s="182"/>
-      <c r="T27" s="182"/>
-      <c r="U27" s="182"/>
-      <c r="V27" s="182"/>
-      <c r="W27" s="182"/>
-      <c r="X27" s="182"/>
-      <c r="Y27" s="182"/>
-      <c r="Z27" s="182"/>
-      <c r="AA27" s="182"/>
-      <c r="AB27" s="182"/>
-      <c r="AC27" s="182"/>
-      <c r="AD27" s="182"/>
-      <c r="AE27" s="182"/>
-      <c r="AF27" s="182"/>
-      <c r="AG27" s="182"/>
-      <c r="AH27" s="182"/>
-      <c r="AI27" s="182"/>
-      <c r="AJ27" s="182"/>
-      <c r="AK27" s="182"/>
-      <c r="AL27" s="182"/>
-      <c r="AM27" s="182"/>
-      <c r="AN27" s="182"/>
-      <c r="AO27" s="183"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="188"/>
+      <c r="N27" s="188"/>
+      <c r="O27" s="188"/>
+      <c r="P27" s="188"/>
+      <c r="Q27" s="188"/>
+      <c r="R27" s="188"/>
+      <c r="S27" s="188"/>
+      <c r="T27" s="188"/>
+      <c r="U27" s="188"/>
+      <c r="V27" s="188"/>
+      <c r="W27" s="188"/>
+      <c r="X27" s="188"/>
+      <c r="Y27" s="188"/>
+      <c r="Z27" s="188"/>
+      <c r="AA27" s="188"/>
+      <c r="AB27" s="188"/>
+      <c r="AC27" s="188"/>
+      <c r="AD27" s="188"/>
+      <c r="AE27" s="188"/>
+      <c r="AF27" s="188"/>
+      <c r="AG27" s="188"/>
+      <c r="AH27" s="188"/>
+      <c r="AI27" s="188"/>
+      <c r="AJ27" s="188"/>
+      <c r="AK27" s="188"/>
+      <c r="AL27" s="188"/>
+      <c r="AM27" s="188"/>
+      <c r="AN27" s="188"/>
+      <c r="AO27" s="189"/>
     </row>
     <row r="28" spans="2:42">
-      <c r="B28" s="181"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="182"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="182"/>
-      <c r="U28" s="182"/>
-      <c r="V28" s="182"/>
-      <c r="W28" s="182"/>
-      <c r="X28" s="182"/>
-      <c r="Y28" s="182"/>
-      <c r="Z28" s="182"/>
-      <c r="AA28" s="182"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="182"/>
-      <c r="AD28" s="182"/>
-      <c r="AE28" s="182"/>
-      <c r="AF28" s="182"/>
-      <c r="AG28" s="182"/>
-      <c r="AH28" s="182"/>
-      <c r="AI28" s="182"/>
-      <c r="AJ28" s="182"/>
-      <c r="AK28" s="182"/>
-      <c r="AL28" s="182"/>
-      <c r="AM28" s="182"/>
-      <c r="AN28" s="182"/>
-      <c r="AO28" s="183"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="191"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="191"/>
+      <c r="Q28" s="191"/>
+      <c r="R28" s="191"/>
+      <c r="S28" s="191"/>
+      <c r="T28" s="191"/>
+      <c r="U28" s="191"/>
+      <c r="V28" s="191"/>
+      <c r="W28" s="191"/>
+      <c r="X28" s="191"/>
+      <c r="Y28" s="191"/>
+      <c r="Z28" s="191"/>
+      <c r="AA28" s="191"/>
+      <c r="AB28" s="191"/>
+      <c r="AC28" s="191"/>
+      <c r="AD28" s="191"/>
+      <c r="AE28" s="191"/>
+      <c r="AF28" s="191"/>
+      <c r="AG28" s="191"/>
+      <c r="AH28" s="191"/>
+      <c r="AI28" s="191"/>
+      <c r="AJ28" s="191"/>
+      <c r="AK28" s="191"/>
+      <c r="AL28" s="191"/>
+      <c r="AM28" s="191"/>
+      <c r="AN28" s="191"/>
+      <c r="AO28" s="192"/>
     </row>
     <row r="29" spans="2:42">
-      <c r="B29" s="181"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="182"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="182"/>
-      <c r="W29" s="182"/>
-      <c r="X29" s="182"/>
-      <c r="Y29" s="182"/>
-      <c r="Z29" s="182"/>
-      <c r="AA29" s="182"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="182"/>
-      <c r="AD29" s="182"/>
-      <c r="AE29" s="182"/>
-      <c r="AF29" s="182"/>
-      <c r="AG29" s="182"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="182"/>
-      <c r="AJ29" s="182"/>
-      <c r="AK29" s="182"/>
-      <c r="AL29" s="182"/>
-      <c r="AM29" s="182"/>
-      <c r="AN29" s="182"/>
-      <c r="AO29" s="183"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="191"/>
+      <c r="R29" s="191"/>
+      <c r="S29" s="191"/>
+      <c r="T29" s="191"/>
+      <c r="U29" s="191"/>
+      <c r="V29" s="191"/>
+      <c r="W29" s="191"/>
+      <c r="X29" s="191"/>
+      <c r="Y29" s="191"/>
+      <c r="Z29" s="191"/>
+      <c r="AA29" s="191"/>
+      <c r="AB29" s="191"/>
+      <c r="AC29" s="191"/>
+      <c r="AD29" s="191"/>
+      <c r="AE29" s="191"/>
+      <c r="AF29" s="191"/>
+      <c r="AG29" s="191"/>
+      <c r="AH29" s="191"/>
+      <c r="AI29" s="191"/>
+      <c r="AJ29" s="191"/>
+      <c r="AK29" s="191"/>
+      <c r="AL29" s="191"/>
+      <c r="AM29" s="191"/>
+      <c r="AN29" s="191"/>
+      <c r="AO29" s="192"/>
     </row>
     <row r="30" spans="2:42">
-      <c r="B30" s="181"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="182"/>
-      <c r="T30" s="182"/>
-      <c r="U30" s="182"/>
-      <c r="V30" s="182"/>
-      <c r="W30" s="182"/>
-      <c r="X30" s="182"/>
-      <c r="Y30" s="182"/>
-      <c r="Z30" s="182"/>
-      <c r="AA30" s="182"/>
-      <c r="AB30" s="182"/>
-      <c r="AC30" s="182"/>
-      <c r="AD30" s="182"/>
-      <c r="AE30" s="182"/>
-      <c r="AF30" s="182"/>
-      <c r="AG30" s="182"/>
-      <c r="AH30" s="182"/>
-      <c r="AI30" s="182"/>
-      <c r="AJ30" s="182"/>
-      <c r="AK30" s="182"/>
-      <c r="AL30" s="182"/>
-      <c r="AM30" s="182"/>
-      <c r="AN30" s="182"/>
-      <c r="AO30" s="183"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="191"/>
+      <c r="S30" s="191"/>
+      <c r="T30" s="191"/>
+      <c r="U30" s="191"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="191"/>
+      <c r="X30" s="191"/>
+      <c r="Y30" s="191"/>
+      <c r="Z30" s="191"/>
+      <c r="AA30" s="191"/>
+      <c r="AB30" s="191"/>
+      <c r="AC30" s="191"/>
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="192"/>
     </row>
     <row r="31" spans="2:42">
-      <c r="B31" s="181"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
-      <c r="V31" s="182"/>
-      <c r="W31" s="182"/>
-      <c r="X31" s="182"/>
-      <c r="Y31" s="182"/>
-      <c r="Z31" s="182"/>
-      <c r="AA31" s="182"/>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="182"/>
-      <c r="AD31" s="182"/>
-      <c r="AE31" s="182"/>
-      <c r="AF31" s="182"/>
-      <c r="AG31" s="182"/>
-      <c r="AH31" s="182"/>
-      <c r="AI31" s="182"/>
-      <c r="AJ31" s="182"/>
-      <c r="AK31" s="182"/>
-      <c r="AL31" s="182"/>
-      <c r="AM31" s="182"/>
-      <c r="AN31" s="182"/>
-      <c r="AO31" s="183"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="191"/>
+      <c r="H31" s="191"/>
+      <c r="I31" s="191"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="191"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="191"/>
+      <c r="Q31" s="191"/>
+      <c r="R31" s="191"/>
+      <c r="S31" s="191"/>
+      <c r="T31" s="191"/>
+      <c r="U31" s="191"/>
+      <c r="V31" s="191"/>
+      <c r="W31" s="191"/>
+      <c r="X31" s="191"/>
+      <c r="Y31" s="191"/>
+      <c r="Z31" s="191"/>
+      <c r="AA31" s="191"/>
+      <c r="AB31" s="191"/>
+      <c r="AC31" s="191"/>
+      <c r="AD31" s="191"/>
+      <c r="AE31" s="191"/>
+      <c r="AF31" s="191"/>
+      <c r="AG31" s="191"/>
+      <c r="AH31" s="191"/>
+      <c r="AI31" s="191"/>
+      <c r="AJ31" s="191"/>
+      <c r="AK31" s="191"/>
+      <c r="AL31" s="191"/>
+      <c r="AM31" s="191"/>
+      <c r="AN31" s="191"/>
+      <c r="AO31" s="192"/>
     </row>
     <row r="32" spans="2:42">
-      <c r="B32" s="181"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="182"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="182"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="182"/>
-      <c r="T32" s="182"/>
-      <c r="U32" s="182"/>
-      <c r="V32" s="182"/>
-      <c r="W32" s="182"/>
-      <c r="X32" s="182"/>
-      <c r="Y32" s="182"/>
-      <c r="Z32" s="182"/>
-      <c r="AA32" s="182"/>
-      <c r="AB32" s="182"/>
-      <c r="AC32" s="182"/>
-      <c r="AD32" s="182"/>
-      <c r="AE32" s="182"/>
-      <c r="AF32" s="182"/>
-      <c r="AG32" s="182"/>
-      <c r="AH32" s="182"/>
-      <c r="AI32" s="182"/>
-      <c r="AJ32" s="182"/>
-      <c r="AK32" s="182"/>
-      <c r="AL32" s="182"/>
-      <c r="AM32" s="182"/>
-      <c r="AN32" s="182"/>
-      <c r="AO32" s="183"/>
-    </row>
-    <row r="33" spans="2:43" ht="19.5" thickBot="1">
-      <c r="B33" s="184"/>
-      <c r="C33" s="185"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="185"/>
-      <c r="M33" s="185"/>
-      <c r="N33" s="185"/>
-      <c r="O33" s="185"/>
-      <c r="P33" s="185"/>
-      <c r="Q33" s="185"/>
-      <c r="R33" s="185"/>
-      <c r="S33" s="185"/>
-      <c r="T33" s="185"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="185"/>
-      <c r="W33" s="185"/>
-      <c r="X33" s="185"/>
-      <c r="Y33" s="185"/>
-      <c r="Z33" s="185"/>
-      <c r="AA33" s="185"/>
-      <c r="AB33" s="185"/>
-      <c r="AC33" s="185"/>
-      <c r="AD33" s="185"/>
-      <c r="AE33" s="185"/>
-      <c r="AF33" s="185"/>
-      <c r="AG33" s="185"/>
-      <c r="AH33" s="185"/>
-      <c r="AI33" s="185"/>
-      <c r="AJ33" s="185"/>
-      <c r="AK33" s="185"/>
-      <c r="AL33" s="185"/>
-      <c r="AM33" s="185"/>
-      <c r="AN33" s="185"/>
-      <c r="AO33" s="186"/>
-    </row>
-    <row r="34" spans="2:43" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
-    <row r="35" spans="2:43" ht="40.35" customHeight="1" thickBot="1">
-      <c r="B35" s="154" t="s">
+      <c r="B32" s="190"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="191"/>
+      <c r="R32" s="191"/>
+      <c r="S32" s="191"/>
+      <c r="T32" s="191"/>
+      <c r="U32" s="191"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="191"/>
+      <c r="X32" s="191"/>
+      <c r="Y32" s="191"/>
+      <c r="Z32" s="191"/>
+      <c r="AA32" s="191"/>
+      <c r="AB32" s="191"/>
+      <c r="AC32" s="191"/>
+      <c r="AD32" s="191"/>
+      <c r="AE32" s="191"/>
+      <c r="AF32" s="191"/>
+      <c r="AG32" s="191"/>
+      <c r="AH32" s="191"/>
+      <c r="AI32" s="191"/>
+      <c r="AJ32" s="191"/>
+      <c r="AK32" s="191"/>
+      <c r="AL32" s="191"/>
+      <c r="AM32" s="191"/>
+      <c r="AN32" s="191"/>
+      <c r="AO32" s="192"/>
+    </row>
+    <row r="33" spans="2:43">
+      <c r="B33" s="190"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="191"/>
+      <c r="P33" s="191"/>
+      <c r="Q33" s="191"/>
+      <c r="R33" s="191"/>
+      <c r="S33" s="191"/>
+      <c r="T33" s="191"/>
+      <c r="U33" s="191"/>
+      <c r="V33" s="191"/>
+      <c r="W33" s="191"/>
+      <c r="X33" s="191"/>
+      <c r="Y33" s="191"/>
+      <c r="Z33" s="191"/>
+      <c r="AA33" s="191"/>
+      <c r="AB33" s="191"/>
+      <c r="AC33" s="191"/>
+      <c r="AD33" s="191"/>
+      <c r="AE33" s="191"/>
+      <c r="AF33" s="191"/>
+      <c r="AG33" s="191"/>
+      <c r="AH33" s="191"/>
+      <c r="AI33" s="191"/>
+      <c r="AJ33" s="191"/>
+      <c r="AK33" s="191"/>
+      <c r="AL33" s="191"/>
+      <c r="AM33" s="191"/>
+      <c r="AN33" s="191"/>
+      <c r="AO33" s="192"/>
+    </row>
+    <row r="34" spans="2:43">
+      <c r="B34" s="190"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="191"/>
+      <c r="O34" s="191"/>
+      <c r="P34" s="191"/>
+      <c r="Q34" s="191"/>
+      <c r="R34" s="191"/>
+      <c r="S34" s="191"/>
+      <c r="T34" s="191"/>
+      <c r="U34" s="191"/>
+      <c r="V34" s="191"/>
+      <c r="W34" s="191"/>
+      <c r="X34" s="191"/>
+      <c r="Y34" s="191"/>
+      <c r="Z34" s="191"/>
+      <c r="AA34" s="191"/>
+      <c r="AB34" s="191"/>
+      <c r="AC34" s="191"/>
+      <c r="AD34" s="191"/>
+      <c r="AE34" s="191"/>
+      <c r="AF34" s="191"/>
+      <c r="AG34" s="191"/>
+      <c r="AH34" s="191"/>
+      <c r="AI34" s="191"/>
+      <c r="AJ34" s="191"/>
+      <c r="AK34" s="191"/>
+      <c r="AL34" s="191"/>
+      <c r="AM34" s="191"/>
+      <c r="AN34" s="191"/>
+      <c r="AO34" s="192"/>
+    </row>
+    <row r="35" spans="2:43" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
+    <row r="36" spans="2:43" ht="40.35" customHeight="1" thickBot="1">
+      <c r="B36" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="155"/>
-      <c r="D35" s="156" t="s">
+      <c r="C36" s="155"/>
+      <c r="D36" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="157" t="s">
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="K35" s="154"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="154"/>
-      <c r="N35" s="154"/>
-      <c r="O35" s="154"/>
-      <c r="P35" s="154"/>
-      <c r="Q35" s="154"/>
-      <c r="R35" s="154"/>
-      <c r="S35" s="154"/>
-      <c r="T35" s="154"/>
-      <c r="U35" s="154"/>
-      <c r="V35" s="154"/>
-      <c r="W35" s="154"/>
-      <c r="X35" s="154"/>
-      <c r="Y35" s="154"/>
-      <c r="Z35" s="154"/>
-      <c r="AA35" s="154"/>
-      <c r="AB35" s="154"/>
-      <c r="AC35" s="158"/>
-      <c r="AD35" s="156" t="s">
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="154"/>
+      <c r="Q36" s="154"/>
+      <c r="R36" s="154"/>
+      <c r="S36" s="154"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="154"/>
+      <c r="V36" s="154"/>
+      <c r="W36" s="154"/>
+      <c r="X36" s="154"/>
+      <c r="Y36" s="154"/>
+      <c r="Z36" s="154"/>
+      <c r="AA36" s="154"/>
+      <c r="AB36" s="154"/>
+      <c r="AC36" s="158"/>
+      <c r="AD36" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="AE35" s="154"/>
-      <c r="AF35" s="154"/>
-      <c r="AG35" s="154"/>
-      <c r="AH35" s="154"/>
-      <c r="AI35" s="154"/>
-      <c r="AJ35" s="154"/>
-      <c r="AK35" s="154"/>
-      <c r="AL35" s="154"/>
-      <c r="AM35" s="154"/>
-      <c r="AN35" s="154"/>
-      <c r="AO35" s="154"/>
-    </row>
-    <row r="36" spans="2:43" ht="27.6" customHeight="1">
-      <c r="B36" s="50">
+      <c r="AE36" s="154"/>
+      <c r="AF36" s="154"/>
+      <c r="AG36" s="154"/>
+      <c r="AH36" s="154"/>
+      <c r="AI36" s="154"/>
+      <c r="AJ36" s="154"/>
+      <c r="AK36" s="154"/>
+      <c r="AL36" s="154"/>
+      <c r="AM36" s="154"/>
+      <c r="AN36" s="154"/>
+      <c r="AO36" s="154"/>
+    </row>
+    <row r="37" spans="2:43" ht="27.6" customHeight="1">
+      <c r="B37" s="50">
         <v>1</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="58" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="59"/>
-      <c r="L36" s="60" t="s">
+      <c r="K37" s="59"/>
+      <c r="L37" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60" t="s">
+      <c r="M37" s="60"/>
+      <c r="N37" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60" t="s">
+      <c r="O37" s="60"/>
+      <c r="P37" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60" t="s">
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60" t="s">
+      <c r="S37" s="60"/>
+      <c r="T37" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60" t="s">
+      <c r="U37" s="60"/>
+      <c r="V37" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60" t="s">
+      <c r="W37" s="60"/>
+      <c r="X37" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="59" t="s">
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60" t="s">
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="AC36" s="61"/>
-      <c r="AD36" s="60" t="s">
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="59" t="s">
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="60" t="s">
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="59" t="s">
+      <c r="AK37" s="60"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="AN36" s="59"/>
-      <c r="AO36" s="64"/>
-      <c r="AQ36" s="16">
-        <f>EDATE(E37,1)</f>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="64"/>
+      <c r="AQ37" s="16">
+        <f>EDATE(E38,1)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:43" ht="27.6" customHeight="1">
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="6" t="s">
+    <row r="38" spans="2:43" ht="27.6" customHeight="1">
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="62"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="63"/>
-      <c r="AH37" s="63"/>
-      <c r="AI37" s="63"/>
-      <c r="AJ37" s="62"/>
-      <c r="AK37" s="62"/>
-      <c r="AL37" s="62"/>
-      <c r="AM37" s="63"/>
-      <c r="AN37" s="63"/>
-      <c r="AO37" s="65"/>
-      <c r="AQ37" s="16">
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="69"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="69"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="63"/>
+      <c r="AH38" s="63"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="62"/>
+      <c r="AK38" s="62"/>
+      <c r="AL38" s="62"/>
+      <c r="AM38" s="63"/>
+      <c r="AN38" s="63"/>
+      <c r="AO38" s="65"/>
+      <c r="AQ38" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
       </c>
-    </row>
-    <row r="38" spans="2:43">
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="70" t="str">
-        <f>IF(D36="","",IF(E37="",IF(DATEDIF(D36,AQ37,"Y")=0,"",DATEDIF(D36,AQ37,"Y")&amp;"年")&amp;IF(DATEDIF(D36,AQ37,"YM")=0,"",DATEDIF(D36,AQ37,"YM")&amp;"ヶ月"),IF(DATEDIF(D36,AQ36,"Y")=0,"",DATEDIF(D36,AQ36,"Y")&amp;"年")&amp;IF(DATEDIF(D36,AQ36,"YM")=0,"",DATEDIF(D36,AQ36,"YM")&amp;"ヶ月")))</f>
-        <v/>
-      </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="S38" s="30"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33"/>
-      <c r="AM38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="34"/>
     </row>
     <row r="39" spans="2:43">
       <c r="B39" s="52"/>
       <c r="C39" s="53"/>
-      <c r="D39" s="6"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
-      <c r="AH39" s="44"/>
-      <c r="AI39" s="44"/>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="45"/>
+      <c r="D39" s="70" t="str">
+        <f>IF(D37="","",IF(E38="",IF(DATEDIF(D37,AQ38,"Y")=0,"",DATEDIF(D37,AQ38,"Y")&amp;"年")&amp;IF(DATEDIF(D37,AQ38,"YM")=0,"",DATEDIF(D37,AQ38,"YM")&amp;"ヶ月"),IF(DATEDIF(D37,AQ37,"Y")=0,"",DATEDIF(D37,AQ37,"Y")&amp;"年")&amp;IF(DATEDIF(D37,AQ37,"YM")=0,"",DATEDIF(D37,AQ37,"YM")&amp;"ヶ月")))</f>
+        <v/>
+      </c>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="30"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="S39" s="30"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="33"/>
+      <c r="AM39" s="33"/>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="34"/>
     </row>
     <row r="40" spans="2:43">
       <c r="B40" s="52"/>
       <c r="C40" s="53"/>
       <c r="D40" s="6"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="40"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="37"/>
       <c r="AD40" s="44"/>
       <c r="AE40" s="44"/>
       <c r="AF40" s="44"/>
@@ -12499,12 +12505,8 @@
     <row r="41" spans="2:43">
       <c r="B41" s="52"/>
       <c r="C41" s="53"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="20"/>
+      <c r="D41" s="6"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="38"/>
       <c r="K41" s="39"/>
       <c r="L41" s="39"/>
@@ -12541,8 +12543,12 @@
     <row r="42" spans="2:43">
       <c r="B42" s="52"/>
       <c r="C42" s="53"/>
-      <c r="D42" s="6"/>
-      <c r="I42" s="11"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="20"/>
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="39"/>
@@ -12639,18 +12645,18 @@
       <c r="AA44" s="39"/>
       <c r="AB44" s="39"/>
       <c r="AC44" s="40"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="48"/>
-      <c r="AG44" s="46"/>
-      <c r="AH44" s="47"/>
-      <c r="AI44" s="48"/>
-      <c r="AJ44" s="46"/>
-      <c r="AK44" s="47"/>
-      <c r="AL44" s="48"/>
-      <c r="AM44" s="46"/>
-      <c r="AN44" s="47"/>
-      <c r="AO44" s="49"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="45"/>
     </row>
     <row r="45" spans="2:43">
       <c r="B45" s="52"/>
@@ -12677,18 +12683,18 @@
       <c r="AA45" s="39"/>
       <c r="AB45" s="39"/>
       <c r="AC45" s="40"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="26"/>
-      <c r="AL45" s="26"/>
-      <c r="AM45" s="26"/>
-      <c r="AN45" s="26"/>
-      <c r="AO45" s="27"/>
+      <c r="AD45" s="46"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="48"/>
+      <c r="AG45" s="46"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="48"/>
+      <c r="AJ45" s="46"/>
+      <c r="AK45" s="47"/>
+      <c r="AL45" s="48"/>
+      <c r="AM45" s="46"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="49"/>
     </row>
     <row r="46" spans="2:43">
       <c r="B46" s="52"/>
@@ -12805,46 +12811,42 @@
       <c r="AO48" s="27"/>
     </row>
     <row r="49" spans="2:43" ht="19.5" thickBot="1">
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="42"/>
-      <c r="Z49" s="42"/>
-      <c r="AA49" s="42"/>
-      <c r="AB49" s="42"/>
-      <c r="AC49" s="43"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="28"/>
-      <c r="AJ49" s="28"/>
-      <c r="AK49" s="28"/>
-      <c r="AL49" s="28"/>
-      <c r="AM49" s="28"/>
-      <c r="AN49" s="28"/>
-      <c r="AO49" s="29"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="6"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="26"/>
+      <c r="AE49" s="26"/>
+      <c r="AF49" s="26"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
+      <c r="AJ49" s="26"/>
+      <c r="AK49" s="26"/>
+      <c r="AL49" s="26"/>
+      <c r="AM49" s="26"/>
+      <c r="AN49" s="26"/>
+      <c r="AO49" s="27"/>
     </row>
     <row r="50" spans="2:43" ht="27.6" customHeight="1">
       <c r="B50" s="50">
@@ -13612,9 +13614,9 @@
       <c r="AD66" s="171"/>
       <c r="AE66" s="171"/>
       <c r="AF66" s="171"/>
-      <c r="AG66" s="287"/>
-      <c r="AH66" s="288"/>
-      <c r="AI66" s="289"/>
+      <c r="AG66" s="177"/>
+      <c r="AH66" s="178"/>
+      <c r="AI66" s="179"/>
       <c r="AJ66" s="172"/>
       <c r="AK66" s="33"/>
       <c r="AL66" s="33"/>
@@ -13650,9 +13652,9 @@
       <c r="AD67" s="44"/>
       <c r="AE67" s="44"/>
       <c r="AF67" s="44"/>
-      <c r="AG67" s="284"/>
-      <c r="AH67" s="285"/>
-      <c r="AI67" s="286"/>
+      <c r="AG67" s="174"/>
+      <c r="AH67" s="175"/>
+      <c r="AI67" s="176"/>
       <c r="AJ67" s="86"/>
       <c r="AK67" s="86"/>
       <c r="AL67" s="93"/>
@@ -13766,7 +13768,7 @@
       <c r="AF70" s="44"/>
       <c r="AG70" s="85"/>
       <c r="AH70" s="86"/>
-      <c r="AI70" s="177"/>
+      <c r="AI70" s="180"/>
       <c r="AJ70" s="86"/>
       <c r="AK70" s="86"/>
       <c r="AL70" s="93"/>
@@ -13842,7 +13844,7 @@
       <c r="AF72" s="93"/>
       <c r="AG72" s="85"/>
       <c r="AH72" s="86"/>
-      <c r="AI72" s="177"/>
+      <c r="AI72" s="180"/>
       <c r="AJ72" s="86"/>
       <c r="AK72" s="86"/>
       <c r="AL72" s="93"/>
@@ -13878,9 +13880,9 @@
       <c r="AD73" s="44"/>
       <c r="AE73" s="44"/>
       <c r="AF73" s="44"/>
-      <c r="AG73" s="290"/>
-      <c r="AH73" s="291"/>
-      <c r="AI73" s="292"/>
+      <c r="AG73" s="181"/>
+      <c r="AH73" s="182"/>
+      <c r="AI73" s="183"/>
       <c r="AJ73" s="86"/>
       <c r="AK73" s="86"/>
       <c r="AL73" s="93"/>
@@ -13916,9 +13918,9 @@
       <c r="AD74" s="44"/>
       <c r="AE74" s="44"/>
       <c r="AF74" s="44"/>
-      <c r="AG74" s="174"/>
-      <c r="AH74" s="175"/>
-      <c r="AI74" s="176"/>
+      <c r="AG74" s="184"/>
+      <c r="AH74" s="185"/>
+      <c r="AI74" s="186"/>
       <c r="AJ74" s="86"/>
       <c r="AK74" s="86"/>
       <c r="AL74" s="93"/>
@@ -21271,7 +21273,23 @@
       <c r="AO245" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="1377">
+  <mergeCells count="1389">
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AK23"/>
+    <mergeCell ref="AL23:AO23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AK22"/>
+    <mergeCell ref="AL22:AO22"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:Q20"/>
@@ -21324,7 +21342,7 @@
     <mergeCell ref="AG128:AI128"/>
     <mergeCell ref="AJ128:AL128"/>
     <mergeCell ref="AM128:AO128"/>
-    <mergeCell ref="B25:AO33"/>
+    <mergeCell ref="B27:AO34"/>
     <mergeCell ref="B50:C63"/>
     <mergeCell ref="AD50:AF51"/>
     <mergeCell ref="AG50:AI51"/>
@@ -21756,11 +21774,11 @@
     <mergeCell ref="X51:Y51"/>
     <mergeCell ref="AF21:AK21"/>
     <mergeCell ref="AL21:AO21"/>
-    <mergeCell ref="B24:AO24"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J35:AC35"/>
-    <mergeCell ref="AD35:AO35"/>
+    <mergeCell ref="B26:AO26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J36:AC36"/>
+    <mergeCell ref="AD36:AO36"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="L50:M50"/>
@@ -21772,14 +21790,14 @@
     <mergeCell ref="X50:Y50"/>
     <mergeCell ref="Z50:AA50"/>
     <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AK22"/>
-    <mergeCell ref="AL22:AO22"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AK24"/>
+    <mergeCell ref="AL24:AO24"/>
     <mergeCell ref="V21:AA21"/>
     <mergeCell ref="AB21:AE21"/>
     <mergeCell ref="B21:G21"/>
@@ -22566,23 +22584,8 @@
     <mergeCell ref="AJ227:AL227"/>
     <mergeCell ref="AG225:AI225"/>
     <mergeCell ref="AJ225:AL225"/>
-    <mergeCell ref="B36:C49"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AF37"/>
-    <mergeCell ref="AG36:AI37"/>
-    <mergeCell ref="AJ36:AL37"/>
-    <mergeCell ref="AM36:AO37"/>
-    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="B37:C49"/>
+    <mergeCell ref="D37:H37"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
@@ -22593,22 +22596,33 @@
     <mergeCell ref="X37:Y37"/>
     <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="AD37:AF38"/>
+    <mergeCell ref="AG37:AI38"/>
+    <mergeCell ref="AJ37:AL38"/>
+    <mergeCell ref="AM37:AO38"/>
+    <mergeCell ref="E38:I38"/>
     <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
     <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
     <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AC38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AG38:AI38"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AO38"/>
-    <mergeCell ref="J39:AC49"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AC39"/>
     <mergeCell ref="AD39:AF39"/>
     <mergeCell ref="AG39:AI39"/>
     <mergeCell ref="AJ39:AL39"/>
     <mergeCell ref="AM39:AO39"/>
+    <mergeCell ref="J40:AC49"/>
     <mergeCell ref="AD40:AF40"/>
     <mergeCell ref="AG40:AI40"/>
     <mergeCell ref="AJ40:AL40"/>
@@ -22658,16 +22672,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ5:AL5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"徒歩,自転車,バス,車"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T52:W52 T79:W79 T92:W92 T105:W105 T118:W118 T131:W131 T144:W144 T157:W157 T170:W170 T183:W183 T196:W196 T209:W209 T222:W222 T235:W235 T66:W66 T38:W38" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T52:W52 T79:W79 T92:W92 T105:W105 T118:W118 T131:W131 T144:W144 T157:W157 T170:W170 T183:W183 T196:W196 T209:W209 T222:W222 T235:W235 T66:W66 T39:W39" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"CNSL,PMO,PM,PL,SL,SE,PG,M"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D144:I144" xr:uid="{6184D20B-66EF-4448-83D1-14A9C9C1C644}">
       <formula1>"前項目と同一顧客"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L79:Q79 L92:Q92 L105:Q105 L118:Q118 L131:Q131 L144:Q144 L157:Q157 L170:Q170 L183:Q183 L196:Q196 L209:Q209 L222:Q222 L235:Q235 L66:Q66 L52:Q52 L38:Q38" xr:uid="{5824A3B6-917A-4EA0-9AE3-05552B4DB7AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L79:Q79 L92:Q92 L105:Q105 L118:Q118 L131:Q131 L144:Q144 L157:Q157 L170:Q170 L183:Q183 L196:Q196 L209:Q209 L222:Q222 L235:Q235 L66:Q66 L52:Q52 L39:Q39" xr:uid="{5824A3B6-917A-4EA0-9AE3-05552B4DB7AE}">
       <formula1>"農林業,鉱業,建設業,製造業,情報通信,運輸業,卸売・小売,金融・保険,不動産業,飲食・宿泊所,医療・福祉,教育・学習,複合サービス事業,サービス業,公務,その他（業務詳細に記入）"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J234:AC234 J51:AC51 J91:AC91 J78:AC78 J104:AC104 J117:AC117 J130:AC130 J143:AC143 J156:AC156 J169:AC169 J182:AC182 J195:AC195 J208:AC208 J221:AC221 J65:AC65 J37:AC37" xr:uid="{63183703-1D95-4489-809A-BB94608BB125}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J234:AC234 J51:AC51 J91:AC91 J78:AC78 J104:AC104 J117:AC117 J130:AC130 J143:AC143 J156:AC156 J169:AC169 J182:AC182 J195:AC195 J208:AC208 J221:AC221 J65:AC65 J38:AC38" xr:uid="{63183703-1D95-4489-809A-BB94608BB125}">
       <formula1>"●"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22720,12 +22734,12 @@
       <c r="AM1" s="99"/>
       <c r="AN1" s="99"/>
       <c r="AO1" s="99"/>
-      <c r="AR1" s="281" t="s">
+      <c r="AR1" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="AS1" s="282"/>
-      <c r="AT1" s="282"/>
-      <c r="AU1" s="282"/>
+      <c r="AS1" s="291"/>
+      <c r="AT1" s="291"/>
+      <c r="AU1" s="291"/>
       <c r="AV1" s="102">
         <v>29246</v>
       </c>
@@ -22746,7 +22760,7 @@
       </c>
       <c r="C4" s="105"/>
       <c r="D4" s="105"/>
-      <c r="E4" s="283" t="s">
+      <c r="E4" s="292" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="107"/>
@@ -22798,7 +22812,7 @@
       </c>
       <c r="C5" s="114"/>
       <c r="D5" s="114"/>
-      <c r="E5" s="278" t="s">
+      <c r="E5" s="287" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="116"/>
@@ -22820,7 +22834,7 @@
       </c>
       <c r="R5" s="118"/>
       <c r="S5" s="119"/>
-      <c r="T5" s="279" t="s">
+      <c r="T5" s="288" t="s">
         <v>69</v>
       </c>
       <c r="U5" s="121"/>
@@ -22832,7 +22846,7 @@
       <c r="AA5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AB5" s="280" t="s">
+      <c r="AB5" s="289" t="s">
         <v>70</v>
       </c>
       <c r="AC5" s="121"/>
@@ -22903,7 +22917,7 @@
       <c r="AO7" s="126"/>
     </row>
     <row r="8" spans="2:53">
-      <c r="B8" s="277" t="s">
+      <c r="B8" s="286" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="128"/>
@@ -22995,7 +23009,7 @@
       <c r="AO9" s="134"/>
     </row>
     <row r="10" spans="2:53">
-      <c r="B10" s="275" t="s">
+      <c r="B10" s="284" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="136"/>
@@ -23039,7 +23053,7 @@
       <c r="AO10" s="137"/>
     </row>
     <row r="11" spans="2:53">
-      <c r="B11" s="276" t="s">
+      <c r="B11" s="285" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="139"/>
@@ -23225,66 +23239,66 @@
       <c r="AO14" s="146"/>
     </row>
     <row r="15" spans="2:53">
-      <c r="B15" s="271" t="s">
+      <c r="B15" s="280" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="272" t="s">
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="281" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="273"/>
-      <c r="J15" s="273"/>
-      <c r="K15" s="274"/>
-      <c r="L15" s="271" t="s">
+      <c r="I15" s="282"/>
+      <c r="J15" s="282"/>
+      <c r="K15" s="283"/>
+      <c r="L15" s="280" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="206"/>
-      <c r="P15" s="206"/>
-      <c r="Q15" s="206"/>
-      <c r="R15" s="272" t="s">
+      <c r="M15" s="215"/>
+      <c r="N15" s="215"/>
+      <c r="O15" s="215"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="215"/>
+      <c r="R15" s="281" t="s">
         <v>115</v>
       </c>
-      <c r="S15" s="273"/>
-      <c r="T15" s="273"/>
-      <c r="U15" s="274"/>
-      <c r="V15" s="271" t="s">
+      <c r="S15" s="282"/>
+      <c r="T15" s="282"/>
+      <c r="U15" s="283"/>
+      <c r="V15" s="280" t="s">
         <v>95</v>
       </c>
-      <c r="W15" s="206"/>
-      <c r="X15" s="206"/>
-      <c r="Y15" s="206"/>
-      <c r="Z15" s="206"/>
-      <c r="AA15" s="206"/>
-      <c r="AB15" s="272" t="s">
+      <c r="W15" s="215"/>
+      <c r="X15" s="215"/>
+      <c r="Y15" s="215"/>
+      <c r="Z15" s="215"/>
+      <c r="AA15" s="215"/>
+      <c r="AB15" s="281" t="s">
         <v>115</v>
       </c>
-      <c r="AC15" s="273"/>
-      <c r="AD15" s="273"/>
-      <c r="AE15" s="274"/>
-      <c r="AF15" s="271" t="s">
+      <c r="AC15" s="282"/>
+      <c r="AD15" s="282"/>
+      <c r="AE15" s="283"/>
+      <c r="AF15" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="AG15" s="206"/>
-      <c r="AH15" s="206"/>
-      <c r="AI15" s="206"/>
-      <c r="AJ15" s="206"/>
-      <c r="AK15" s="206"/>
-      <c r="AL15" s="272" t="s">
+      <c r="AG15" s="215"/>
+      <c r="AH15" s="215"/>
+      <c r="AI15" s="215"/>
+      <c r="AJ15" s="215"/>
+      <c r="AK15" s="215"/>
+      <c r="AL15" s="281" t="s">
         <v>114</v>
       </c>
-      <c r="AM15" s="273"/>
-      <c r="AN15" s="273"/>
-      <c r="AO15" s="274"/>
+      <c r="AM15" s="282"/>
+      <c r="AN15" s="282"/>
+      <c r="AO15" s="283"/>
       <c r="AP15" s="15"/>
     </row>
     <row r="16" spans="2:53">
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="200" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="26"/>
@@ -23292,13 +23306,13 @@
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="192" t="s">
+      <c r="H16" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="191" t="s">
+      <c r="I16" s="202"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="200" t="s">
         <v>82</v>
       </c>
       <c r="M16" s="26"/>
@@ -23306,13 +23320,13 @@
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
-      <c r="R16" s="192" t="s">
+      <c r="R16" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="S16" s="193"/>
-      <c r="T16" s="193"/>
-      <c r="U16" s="194"/>
-      <c r="V16" s="191" t="s">
+      <c r="S16" s="202"/>
+      <c r="T16" s="202"/>
+      <c r="U16" s="203"/>
+      <c r="V16" s="200" t="s">
         <v>96</v>
       </c>
       <c r="W16" s="26"/>
@@ -23320,13 +23334,13 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="26"/>
       <c r="AA16" s="26"/>
-      <c r="AB16" s="192" t="s">
+      <c r="AB16" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="AC16" s="193"/>
-      <c r="AD16" s="193"/>
-      <c r="AE16" s="194"/>
-      <c r="AF16" s="191" t="s">
+      <c r="AC16" s="202"/>
+      <c r="AD16" s="202"/>
+      <c r="AE16" s="203"/>
+      <c r="AF16" s="200" t="s">
         <v>98</v>
       </c>
       <c r="AG16" s="26"/>
@@ -23334,16 +23348,16 @@
       <c r="AI16" s="26"/>
       <c r="AJ16" s="26"/>
       <c r="AK16" s="26"/>
-      <c r="AL16" s="192" t="s">
+      <c r="AL16" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="AM16" s="193"/>
-      <c r="AN16" s="193"/>
-      <c r="AO16" s="194"/>
+      <c r="AM16" s="202"/>
+      <c r="AN16" s="202"/>
+      <c r="AO16" s="203"/>
       <c r="AP16" s="15"/>
     </row>
     <row r="17" spans="2:53">
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="200" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="26"/>
@@ -23351,13 +23365,13 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="192" t="s">
+      <c r="H17" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="194"/>
-      <c r="L17" s="191" t="s">
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="200" t="s">
         <v>83</v>
       </c>
       <c r="M17" s="26"/>
@@ -23365,23 +23379,23 @@
       <c r="O17" s="26"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
-      <c r="R17" s="192" t="s">
+      <c r="R17" s="201" t="s">
         <v>86</v>
       </c>
-      <c r="S17" s="193"/>
-      <c r="T17" s="193"/>
-      <c r="U17" s="194"/>
-      <c r="V17" s="195"/>
+      <c r="S17" s="202"/>
+      <c r="T17" s="202"/>
+      <c r="U17" s="203"/>
+      <c r="V17" s="204"/>
       <c r="W17" s="26"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="26"/>
       <c r="Z17" s="26"/>
       <c r="AA17" s="26"/>
-      <c r="AB17" s="193"/>
-      <c r="AC17" s="193"/>
-      <c r="AD17" s="193"/>
-      <c r="AE17" s="194"/>
-      <c r="AF17" s="191" t="s">
+      <c r="AB17" s="202"/>
+      <c r="AC17" s="202"/>
+      <c r="AD17" s="202"/>
+      <c r="AE17" s="203"/>
+      <c r="AF17" s="200" t="s">
         <v>99</v>
       </c>
       <c r="AG17" s="26"/>
@@ -23389,16 +23403,16 @@
       <c r="AI17" s="26"/>
       <c r="AJ17" s="26"/>
       <c r="AK17" s="26"/>
-      <c r="AL17" s="192" t="s">
+      <c r="AL17" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="AM17" s="193"/>
-      <c r="AN17" s="193"/>
-      <c r="AO17" s="194"/>
+      <c r="AM17" s="202"/>
+      <c r="AN17" s="202"/>
+      <c r="AO17" s="203"/>
       <c r="AP17" s="15"/>
     </row>
     <row r="18" spans="2:53">
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="200" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="26"/>
@@ -23406,13 +23420,13 @@
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="192" t="s">
+      <c r="H18" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="191" t="s">
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="203"/>
+      <c r="L18" s="200" t="s">
         <v>84</v>
       </c>
       <c r="M18" s="26"/>
@@ -23420,36 +23434,36 @@
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
-      <c r="R18" s="192" t="s">
+      <c r="R18" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="193"/>
-      <c r="T18" s="193"/>
-      <c r="U18" s="194"/>
-      <c r="V18" s="195"/>
+      <c r="S18" s="202"/>
+      <c r="T18" s="202"/>
+      <c r="U18" s="203"/>
+      <c r="V18" s="204"/>
       <c r="W18" s="26"/>
       <c r="X18" s="26"/>
       <c r="Y18" s="26"/>
       <c r="Z18" s="26"/>
       <c r="AA18" s="26"/>
-      <c r="AB18" s="193"/>
-      <c r="AC18" s="193"/>
-      <c r="AD18" s="193"/>
-      <c r="AE18" s="194"/>
-      <c r="AF18" s="195"/>
+      <c r="AB18" s="202"/>
+      <c r="AC18" s="202"/>
+      <c r="AD18" s="202"/>
+      <c r="AE18" s="203"/>
+      <c r="AF18" s="204"/>
       <c r="AG18" s="26"/>
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
       <c r="AJ18" s="26"/>
       <c r="AK18" s="26"/>
-      <c r="AL18" s="193"/>
-      <c r="AM18" s="193"/>
-      <c r="AN18" s="193"/>
-      <c r="AO18" s="194"/>
+      <c r="AL18" s="202"/>
+      <c r="AM18" s="202"/>
+      <c r="AN18" s="202"/>
+      <c r="AO18" s="203"/>
       <c r="AP18" s="15"/>
     </row>
     <row r="19" spans="2:53">
-      <c r="B19" s="191" t="s">
+      <c r="B19" s="200" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="26"/>
@@ -23457,13 +23471,13 @@
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="192" t="s">
+      <c r="H19" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="191" t="s">
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="200" t="s">
         <v>85</v>
       </c>
       <c r="M19" s="26"/>
@@ -23471,36 +23485,36 @@
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
-      <c r="R19" s="192" t="s">
+      <c r="R19" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="S19" s="193"/>
-      <c r="T19" s="193"/>
-      <c r="U19" s="194"/>
-      <c r="V19" s="195"/>
+      <c r="S19" s="202"/>
+      <c r="T19" s="202"/>
+      <c r="U19" s="203"/>
+      <c r="V19" s="204"/>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26"/>
       <c r="AA19" s="26"/>
-      <c r="AB19" s="193"/>
-      <c r="AC19" s="193"/>
-      <c r="AD19" s="193"/>
-      <c r="AE19" s="194"/>
-      <c r="AF19" s="195"/>
+      <c r="AB19" s="202"/>
+      <c r="AC19" s="202"/>
+      <c r="AD19" s="202"/>
+      <c r="AE19" s="203"/>
+      <c r="AF19" s="204"/>
       <c r="AG19" s="26"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="26"/>
       <c r="AJ19" s="26"/>
       <c r="AK19" s="26"/>
-      <c r="AL19" s="193"/>
-      <c r="AM19" s="193"/>
-      <c r="AN19" s="193"/>
-      <c r="AO19" s="194"/>
+      <c r="AL19" s="202"/>
+      <c r="AM19" s="202"/>
+      <c r="AN19" s="202"/>
+      <c r="AO19" s="203"/>
       <c r="AP19" s="15"/>
     </row>
     <row r="20" spans="2:53" s="2" customFormat="1">
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="200" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="26"/>
@@ -23508,13 +23522,13 @@
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="192" t="s">
+      <c r="H20" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="191" t="s">
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="200" t="s">
         <v>87</v>
       </c>
       <c r="M20" s="26"/>
@@ -23522,32 +23536,32 @@
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
-      <c r="R20" s="192" t="s">
+      <c r="R20" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="S20" s="193"/>
-      <c r="T20" s="193"/>
-      <c r="U20" s="194"/>
-      <c r="V20" s="195"/>
+      <c r="S20" s="202"/>
+      <c r="T20" s="202"/>
+      <c r="U20" s="203"/>
+      <c r="V20" s="204"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26"/>
       <c r="AA20" s="26"/>
-      <c r="AB20" s="193"/>
-      <c r="AC20" s="193"/>
-      <c r="AD20" s="193"/>
-      <c r="AE20" s="194"/>
-      <c r="AF20" s="195"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="202"/>
+      <c r="AD20" s="202"/>
+      <c r="AE20" s="203"/>
+      <c r="AF20" s="204"/>
       <c r="AG20" s="26"/>
       <c r="AH20" s="26"/>
       <c r="AI20" s="26"/>
       <c r="AJ20" s="26"/>
       <c r="AK20" s="26"/>
-      <c r="AL20" s="193"/>
-      <c r="AM20" s="193"/>
-      <c r="AN20" s="193"/>
-      <c r="AO20" s="194"/>
+      <c r="AL20" s="202"/>
+      <c r="AM20" s="202"/>
+      <c r="AN20" s="202"/>
+      <c r="AO20" s="203"/>
       <c r="AP20" s="15"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
@@ -23561,7 +23575,7 @@
       <c r="BA20" s="1"/>
     </row>
     <row r="21" spans="2:53" s="2" customFormat="1">
-      <c r="B21" s="191" t="s">
+      <c r="B21" s="200" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="26"/>
@@ -23569,13 +23583,13 @@
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="192" t="s">
+      <c r="H21" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="191" t="s">
+      <c r="I21" s="202"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="200" t="s">
         <v>89</v>
       </c>
       <c r="M21" s="26"/>
@@ -23583,32 +23597,32 @@
       <c r="O21" s="26"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
-      <c r="R21" s="192" t="s">
+      <c r="R21" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="S21" s="193"/>
-      <c r="T21" s="193"/>
-      <c r="U21" s="194"/>
-      <c r="V21" s="195"/>
+      <c r="S21" s="202"/>
+      <c r="T21" s="202"/>
+      <c r="U21" s="203"/>
+      <c r="V21" s="204"/>
       <c r="W21" s="26"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
       <c r="AA21" s="26"/>
-      <c r="AB21" s="193"/>
-      <c r="AC21" s="193"/>
-      <c r="AD21" s="193"/>
-      <c r="AE21" s="194"/>
-      <c r="AF21" s="195"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
+      <c r="AD21" s="202"/>
+      <c r="AE21" s="203"/>
+      <c r="AF21" s="204"/>
       <c r="AG21" s="26"/>
       <c r="AH21" s="26"/>
       <c r="AI21" s="26"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="26"/>
-      <c r="AL21" s="193"/>
-      <c r="AM21" s="193"/>
-      <c r="AN21" s="193"/>
-      <c r="AO21" s="194"/>
+      <c r="AL21" s="202"/>
+      <c r="AM21" s="202"/>
+      <c r="AN21" s="202"/>
+      <c r="AO21" s="203"/>
       <c r="AP21" s="15"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
@@ -23622,17 +23636,17 @@
       <c r="BA21" s="1"/>
     </row>
     <row r="22" spans="2:53" s="2" customFormat="1">
-      <c r="B22" s="191"/>
+      <c r="B22" s="200"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="191" t="s">
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="200" t="s">
         <v>90</v>
       </c>
       <c r="M22" s="26"/>
@@ -23640,32 +23654,32 @@
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="192" t="s">
+      <c r="R22" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="S22" s="193"/>
-      <c r="T22" s="193"/>
-      <c r="U22" s="194"/>
-      <c r="V22" s="195"/>
+      <c r="S22" s="202"/>
+      <c r="T22" s="202"/>
+      <c r="U22" s="203"/>
+      <c r="V22" s="204"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="26"/>
       <c r="AA22" s="26"/>
-      <c r="AB22" s="193"/>
-      <c r="AC22" s="193"/>
-      <c r="AD22" s="193"/>
-      <c r="AE22" s="194"/>
-      <c r="AF22" s="195"/>
+      <c r="AB22" s="202"/>
+      <c r="AC22" s="202"/>
+      <c r="AD22" s="202"/>
+      <c r="AE22" s="203"/>
+      <c r="AF22" s="204"/>
       <c r="AG22" s="26"/>
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
       <c r="AJ22" s="26"/>
       <c r="AK22" s="26"/>
-      <c r="AL22" s="193"/>
-      <c r="AM22" s="193"/>
-      <c r="AN22" s="193"/>
-      <c r="AO22" s="194"/>
+      <c r="AL22" s="202"/>
+      <c r="AM22" s="202"/>
+      <c r="AN22" s="202"/>
+      <c r="AO22" s="203"/>
       <c r="AP22" s="15"/>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
@@ -23679,17 +23693,17 @@
       <c r="BA22" s="1"/>
     </row>
     <row r="23" spans="2:53" s="2" customFormat="1">
-      <c r="B23" s="191"/>
+      <c r="B23" s="200"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="194"/>
-      <c r="L23" s="191" t="s">
+      <c r="H23" s="201"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="200" t="s">
         <v>91</v>
       </c>
       <c r="M23" s="26"/>
@@ -23697,32 +23711,32 @@
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
-      <c r="R23" s="192" t="s">
+      <c r="R23" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="S23" s="193"/>
-      <c r="T23" s="193"/>
-      <c r="U23" s="194"/>
-      <c r="V23" s="195"/>
+      <c r="S23" s="202"/>
+      <c r="T23" s="202"/>
+      <c r="U23" s="203"/>
+      <c r="V23" s="204"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
-      <c r="AB23" s="193"/>
-      <c r="AC23" s="193"/>
-      <c r="AD23" s="193"/>
-      <c r="AE23" s="194"/>
-      <c r="AF23" s="195"/>
+      <c r="AB23" s="202"/>
+      <c r="AC23" s="202"/>
+      <c r="AD23" s="202"/>
+      <c r="AE23" s="203"/>
+      <c r="AF23" s="204"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="26"/>
       <c r="AI23" s="26"/>
       <c r="AJ23" s="26"/>
       <c r="AK23" s="26"/>
-      <c r="AL23" s="193"/>
-      <c r="AM23" s="193"/>
-      <c r="AN23" s="193"/>
-      <c r="AO23" s="194"/>
+      <c r="AL23" s="202"/>
+      <c r="AM23" s="202"/>
+      <c r="AN23" s="202"/>
+      <c r="AO23" s="203"/>
       <c r="AP23" s="15"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
@@ -23736,17 +23750,17 @@
       <c r="BA23" s="1"/>
     </row>
     <row r="24" spans="2:53" s="2" customFormat="1">
-      <c r="B24" s="191"/>
+      <c r="B24" s="200"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="191" t="s">
+      <c r="H24" s="201"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="203"/>
+      <c r="L24" s="200" t="s">
         <v>92</v>
       </c>
       <c r="M24" s="26"/>
@@ -23754,32 +23768,32 @@
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
-      <c r="R24" s="192" t="s">
+      <c r="R24" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="S24" s="193"/>
-      <c r="T24" s="193"/>
-      <c r="U24" s="194"/>
-      <c r="V24" s="195"/>
+      <c r="S24" s="202"/>
+      <c r="T24" s="202"/>
+      <c r="U24" s="203"/>
+      <c r="V24" s="204"/>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
       <c r="Z24" s="26"/>
       <c r="AA24" s="26"/>
-      <c r="AB24" s="193"/>
-      <c r="AC24" s="193"/>
-      <c r="AD24" s="193"/>
-      <c r="AE24" s="194"/>
-      <c r="AF24" s="195"/>
+      <c r="AB24" s="202"/>
+      <c r="AC24" s="202"/>
+      <c r="AD24" s="202"/>
+      <c r="AE24" s="203"/>
+      <c r="AF24" s="204"/>
       <c r="AG24" s="26"/>
       <c r="AH24" s="26"/>
       <c r="AI24" s="26"/>
       <c r="AJ24" s="26"/>
       <c r="AK24" s="26"/>
-      <c r="AL24" s="193"/>
-      <c r="AM24" s="193"/>
-      <c r="AN24" s="193"/>
-      <c r="AO24" s="194"/>
+      <c r="AL24" s="202"/>
+      <c r="AM24" s="202"/>
+      <c r="AN24" s="202"/>
+      <c r="AO24" s="203"/>
       <c r="AP24" s="15"/>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
@@ -23793,46 +23807,46 @@
       <c r="BA24" s="1"/>
     </row>
     <row r="25" spans="2:53" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B25" s="262"/>
+      <c r="B25" s="271"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="263"/>
-      <c r="I25" s="264"/>
-      <c r="J25" s="264"/>
-      <c r="K25" s="265"/>
-      <c r="L25" s="262"/>
+      <c r="H25" s="272"/>
+      <c r="I25" s="273"/>
+      <c r="J25" s="273"/>
+      <c r="K25" s="274"/>
+      <c r="L25" s="271"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="266"/>
-      <c r="O25" s="266"/>
-      <c r="P25" s="266"/>
-      <c r="Q25" s="266"/>
-      <c r="R25" s="267"/>
-      <c r="S25" s="268"/>
-      <c r="T25" s="268"/>
-      <c r="U25" s="269"/>
-      <c r="V25" s="270"/>
+      <c r="N25" s="275"/>
+      <c r="O25" s="275"/>
+      <c r="P25" s="275"/>
+      <c r="Q25" s="275"/>
+      <c r="R25" s="276"/>
+      <c r="S25" s="277"/>
+      <c r="T25" s="277"/>
+      <c r="U25" s="278"/>
+      <c r="V25" s="279"/>
       <c r="W25" s="28"/>
       <c r="X25" s="28"/>
       <c r="Y25" s="28"/>
       <c r="Z25" s="28"/>
       <c r="AA25" s="28"/>
-      <c r="AB25" s="264"/>
-      <c r="AC25" s="264"/>
-      <c r="AD25" s="264"/>
-      <c r="AE25" s="265"/>
-      <c r="AF25" s="270"/>
+      <c r="AB25" s="273"/>
+      <c r="AC25" s="273"/>
+      <c r="AD25" s="273"/>
+      <c r="AE25" s="274"/>
+      <c r="AF25" s="279"/>
       <c r="AG25" s="28"/>
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="28"/>
       <c r="AK25" s="28"/>
-      <c r="AL25" s="264"/>
-      <c r="AM25" s="264"/>
-      <c r="AN25" s="264"/>
-      <c r="AO25" s="265"/>
+      <c r="AL25" s="273"/>
+      <c r="AM25" s="273"/>
+      <c r="AN25" s="273"/>
+      <c r="AO25" s="274"/>
       <c r="AP25" s="15"/>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
@@ -23954,48 +23968,48 @@
       <c r="BA27" s="1"/>
     </row>
     <row r="28" spans="2:53" s="2" customFormat="1">
-      <c r="B28" s="259" t="s">
+      <c r="B28" s="268" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="179"/>
-      <c r="Q28" s="179"/>
-      <c r="R28" s="179"/>
-      <c r="S28" s="179"/>
-      <c r="T28" s="179"/>
-      <c r="U28" s="179"/>
-      <c r="V28" s="179"/>
-      <c r="W28" s="179"/>
-      <c r="X28" s="179"/>
-      <c r="Y28" s="179"/>
-      <c r="Z28" s="179"/>
-      <c r="AA28" s="179"/>
-      <c r="AB28" s="179"/>
-      <c r="AC28" s="179"/>
-      <c r="AD28" s="179"/>
-      <c r="AE28" s="179"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="179"/>
-      <c r="AJ28" s="179"/>
-      <c r="AK28" s="179"/>
-      <c r="AL28" s="179"/>
-      <c r="AM28" s="179"/>
-      <c r="AN28" s="179"/>
-      <c r="AO28" s="180"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="188"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="188"/>
+      <c r="R28" s="188"/>
+      <c r="S28" s="188"/>
+      <c r="T28" s="188"/>
+      <c r="U28" s="188"/>
+      <c r="V28" s="188"/>
+      <c r="W28" s="188"/>
+      <c r="X28" s="188"/>
+      <c r="Y28" s="188"/>
+      <c r="Z28" s="188"/>
+      <c r="AA28" s="188"/>
+      <c r="AB28" s="188"/>
+      <c r="AC28" s="188"/>
+      <c r="AD28" s="188"/>
+      <c r="AE28" s="188"/>
+      <c r="AF28" s="188"/>
+      <c r="AG28" s="188"/>
+      <c r="AH28" s="188"/>
+      <c r="AI28" s="188"/>
+      <c r="AJ28" s="188"/>
+      <c r="AK28" s="188"/>
+      <c r="AL28" s="188"/>
+      <c r="AM28" s="188"/>
+      <c r="AN28" s="188"/>
+      <c r="AO28" s="189"/>
       <c r="AP28" s="1"/>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
@@ -24009,46 +24023,46 @@
       <c r="BA28" s="1"/>
     </row>
     <row r="29" spans="2:53" s="2" customFormat="1">
-      <c r="B29" s="181"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="182"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="182"/>
-      <c r="W29" s="182"/>
-      <c r="X29" s="182"/>
-      <c r="Y29" s="182"/>
-      <c r="Z29" s="182"/>
-      <c r="AA29" s="182"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="182"/>
-      <c r="AD29" s="182"/>
-      <c r="AE29" s="182"/>
-      <c r="AF29" s="182"/>
-      <c r="AG29" s="182"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="182"/>
-      <c r="AJ29" s="182"/>
-      <c r="AK29" s="182"/>
-      <c r="AL29" s="182"/>
-      <c r="AM29" s="182"/>
-      <c r="AN29" s="182"/>
-      <c r="AO29" s="183"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="191"/>
+      <c r="R29" s="191"/>
+      <c r="S29" s="191"/>
+      <c r="T29" s="191"/>
+      <c r="U29" s="191"/>
+      <c r="V29" s="191"/>
+      <c r="W29" s="191"/>
+      <c r="X29" s="191"/>
+      <c r="Y29" s="191"/>
+      <c r="Z29" s="191"/>
+      <c r="AA29" s="191"/>
+      <c r="AB29" s="191"/>
+      <c r="AC29" s="191"/>
+      <c r="AD29" s="191"/>
+      <c r="AE29" s="191"/>
+      <c r="AF29" s="191"/>
+      <c r="AG29" s="191"/>
+      <c r="AH29" s="191"/>
+      <c r="AI29" s="191"/>
+      <c r="AJ29" s="191"/>
+      <c r="AK29" s="191"/>
+      <c r="AL29" s="191"/>
+      <c r="AM29" s="191"/>
+      <c r="AN29" s="191"/>
+      <c r="AO29" s="192"/>
       <c r="AP29" s="1"/>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
@@ -24062,46 +24076,46 @@
       <c r="BA29" s="1"/>
     </row>
     <row r="30" spans="2:53" s="2" customFormat="1">
-      <c r="B30" s="181"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="182"/>
-      <c r="T30" s="182"/>
-      <c r="U30" s="182"/>
-      <c r="V30" s="182"/>
-      <c r="W30" s="182"/>
-      <c r="X30" s="182"/>
-      <c r="Y30" s="182"/>
-      <c r="Z30" s="182"/>
-      <c r="AA30" s="182"/>
-      <c r="AB30" s="182"/>
-      <c r="AC30" s="182"/>
-      <c r="AD30" s="182"/>
-      <c r="AE30" s="182"/>
-      <c r="AF30" s="182"/>
-      <c r="AG30" s="182"/>
-      <c r="AH30" s="182"/>
-      <c r="AI30" s="182"/>
-      <c r="AJ30" s="182"/>
-      <c r="AK30" s="182"/>
-      <c r="AL30" s="182"/>
-      <c r="AM30" s="182"/>
-      <c r="AN30" s="182"/>
-      <c r="AO30" s="183"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="191"/>
+      <c r="S30" s="191"/>
+      <c r="T30" s="191"/>
+      <c r="U30" s="191"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="191"/>
+      <c r="X30" s="191"/>
+      <c r="Y30" s="191"/>
+      <c r="Z30" s="191"/>
+      <c r="AA30" s="191"/>
+      <c r="AB30" s="191"/>
+      <c r="AC30" s="191"/>
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="192"/>
       <c r="AP30" s="1"/>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
@@ -24115,46 +24129,46 @@
       <c r="BA30" s="1"/>
     </row>
     <row r="31" spans="2:53" s="2" customFormat="1">
-      <c r="B31" s="181"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
-      <c r="V31" s="182"/>
-      <c r="W31" s="182"/>
-      <c r="X31" s="182"/>
-      <c r="Y31" s="182"/>
-      <c r="Z31" s="182"/>
-      <c r="AA31" s="182"/>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="182"/>
-      <c r="AD31" s="182"/>
-      <c r="AE31" s="182"/>
-      <c r="AF31" s="182"/>
-      <c r="AG31" s="182"/>
-      <c r="AH31" s="182"/>
-      <c r="AI31" s="182"/>
-      <c r="AJ31" s="182"/>
-      <c r="AK31" s="182"/>
-      <c r="AL31" s="182"/>
-      <c r="AM31" s="182"/>
-      <c r="AN31" s="182"/>
-      <c r="AO31" s="183"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="191"/>
+      <c r="H31" s="191"/>
+      <c r="I31" s="191"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="191"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="191"/>
+      <c r="Q31" s="191"/>
+      <c r="R31" s="191"/>
+      <c r="S31" s="191"/>
+      <c r="T31" s="191"/>
+      <c r="U31" s="191"/>
+      <c r="V31" s="191"/>
+      <c r="W31" s="191"/>
+      <c r="X31" s="191"/>
+      <c r="Y31" s="191"/>
+      <c r="Z31" s="191"/>
+      <c r="AA31" s="191"/>
+      <c r="AB31" s="191"/>
+      <c r="AC31" s="191"/>
+      <c r="AD31" s="191"/>
+      <c r="AE31" s="191"/>
+      <c r="AF31" s="191"/>
+      <c r="AG31" s="191"/>
+      <c r="AH31" s="191"/>
+      <c r="AI31" s="191"/>
+      <c r="AJ31" s="191"/>
+      <c r="AK31" s="191"/>
+      <c r="AL31" s="191"/>
+      <c r="AM31" s="191"/>
+      <c r="AN31" s="191"/>
+      <c r="AO31" s="192"/>
       <c r="AP31" s="1"/>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
@@ -24168,46 +24182,46 @@
       <c r="BA31" s="1"/>
     </row>
     <row r="32" spans="2:53" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B32" s="184"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="185"/>
-      <c r="M32" s="185"/>
-      <c r="N32" s="185"/>
-      <c r="O32" s="185"/>
-      <c r="P32" s="185"/>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="185"/>
-      <c r="U32" s="185"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="185"/>
-      <c r="X32" s="185"/>
-      <c r="Y32" s="185"/>
-      <c r="Z32" s="185"/>
-      <c r="AA32" s="185"/>
-      <c r="AB32" s="185"/>
-      <c r="AC32" s="185"/>
-      <c r="AD32" s="185"/>
-      <c r="AE32" s="185"/>
-      <c r="AF32" s="185"/>
-      <c r="AG32" s="185"/>
-      <c r="AH32" s="185"/>
-      <c r="AI32" s="185"/>
-      <c r="AJ32" s="185"/>
-      <c r="AK32" s="185"/>
-      <c r="AL32" s="185"/>
-      <c r="AM32" s="185"/>
-      <c r="AN32" s="185"/>
-      <c r="AO32" s="186"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="194"/>
+      <c r="O32" s="194"/>
+      <c r="P32" s="194"/>
+      <c r="Q32" s="194"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="194"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="194"/>
+      <c r="X32" s="194"/>
+      <c r="Y32" s="194"/>
+      <c r="Z32" s="194"/>
+      <c r="AA32" s="194"/>
+      <c r="AB32" s="194"/>
+      <c r="AC32" s="194"/>
+      <c r="AD32" s="194"/>
+      <c r="AE32" s="194"/>
+      <c r="AF32" s="194"/>
+      <c r="AG32" s="194"/>
+      <c r="AH32" s="194"/>
+      <c r="AI32" s="194"/>
+      <c r="AJ32" s="194"/>
+      <c r="AK32" s="194"/>
+      <c r="AL32" s="194"/>
+      <c r="AM32" s="194"/>
+      <c r="AN32" s="194"/>
+      <c r="AO32" s="195"/>
       <c r="AP32" s="1"/>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
@@ -24274,54 +24288,54 @@
       <c r="BA33" s="1"/>
     </row>
     <row r="34" spans="2:53" s="2" customFormat="1" ht="40.35" customHeight="1">
-      <c r="B34" s="260" t="s">
+      <c r="B34" s="269" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="104"/>
-      <c r="D34" s="261" t="s">
+      <c r="D34" s="270" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="112"/>
       <c r="F34" s="112"/>
-      <c r="G34" s="260"/>
-      <c r="H34" s="260"/>
+      <c r="G34" s="269"/>
+      <c r="H34" s="269"/>
       <c r="I34" s="104"/>
       <c r="J34" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="260"/>
-      <c r="L34" s="260"/>
-      <c r="M34" s="260"/>
-      <c r="N34" s="260"/>
-      <c r="O34" s="260"/>
-      <c r="P34" s="260"/>
-      <c r="Q34" s="260"/>
-      <c r="R34" s="260"/>
-      <c r="S34" s="260"/>
-      <c r="T34" s="260"/>
-      <c r="U34" s="260"/>
-      <c r="V34" s="260"/>
-      <c r="W34" s="260"/>
-      <c r="X34" s="260"/>
-      <c r="Y34" s="260"/>
-      <c r="Z34" s="260"/>
-      <c r="AA34" s="260"/>
-      <c r="AB34" s="260"/>
+      <c r="K34" s="269"/>
+      <c r="L34" s="269"/>
+      <c r="M34" s="269"/>
+      <c r="N34" s="269"/>
+      <c r="O34" s="269"/>
+      <c r="P34" s="269"/>
+      <c r="Q34" s="269"/>
+      <c r="R34" s="269"/>
+      <c r="S34" s="269"/>
+      <c r="T34" s="269"/>
+      <c r="U34" s="269"/>
+      <c r="V34" s="269"/>
+      <c r="W34" s="269"/>
+      <c r="X34" s="269"/>
+      <c r="Y34" s="269"/>
+      <c r="Z34" s="269"/>
+      <c r="AA34" s="269"/>
+      <c r="AB34" s="269"/>
       <c r="AC34" s="110"/>
-      <c r="AD34" s="261" t="s">
+      <c r="AD34" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="AE34" s="260"/>
-      <c r="AF34" s="260"/>
-      <c r="AG34" s="260"/>
-      <c r="AH34" s="260"/>
-      <c r="AI34" s="260"/>
-      <c r="AJ34" s="260"/>
-      <c r="AK34" s="260"/>
-      <c r="AL34" s="260"/>
-      <c r="AM34" s="260"/>
-      <c r="AN34" s="260"/>
-      <c r="AO34" s="260"/>
+      <c r="AE34" s="269"/>
+      <c r="AF34" s="269"/>
+      <c r="AG34" s="269"/>
+      <c r="AH34" s="269"/>
+      <c r="AI34" s="269"/>
+      <c r="AJ34" s="269"/>
+      <c r="AK34" s="269"/>
+      <c r="AL34" s="269"/>
+      <c r="AM34" s="269"/>
+      <c r="AN34" s="269"/>
+      <c r="AO34" s="269"/>
       <c r="AP34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
@@ -24520,22 +24534,22 @@
       <c r="AA37" s="31"/>
       <c r="AB37" s="31"/>
       <c r="AC37" s="32"/>
-      <c r="AD37" s="258" t="s">
+      <c r="AD37" s="267" t="s">
         <v>74</v>
       </c>
       <c r="AE37" s="33"/>
       <c r="AF37" s="33"/>
-      <c r="AG37" s="258" t="s">
+      <c r="AG37" s="267" t="s">
         <v>104</v>
       </c>
       <c r="AH37" s="33"/>
       <c r="AI37" s="33"/>
-      <c r="AJ37" s="258" t="s">
+      <c r="AJ37" s="267" t="s">
         <v>107</v>
       </c>
       <c r="AK37" s="33"/>
       <c r="AL37" s="33"/>
-      <c r="AM37" s="258" t="s">
+      <c r="AM37" s="267" t="s">
         <v>108</v>
       </c>
       <c r="AN37" s="33"/>
@@ -25087,7 +25101,7 @@
         <v>52</v>
       </c>
       <c r="K50" s="30"/>
-      <c r="L50" s="217" t="s">
+      <c r="L50" s="226" t="s">
         <v>101</v>
       </c>
       <c r="M50" s="31"/>
@@ -25115,22 +25129,22 @@
       <c r="AA50" s="31"/>
       <c r="AB50" s="31"/>
       <c r="AC50" s="32"/>
-      <c r="AD50" s="258" t="s">
+      <c r="AD50" s="267" t="s">
         <v>74</v>
       </c>
       <c r="AE50" s="33"/>
       <c r="AF50" s="33"/>
-      <c r="AG50" s="258" t="s">
+      <c r="AG50" s="267" t="s">
         <v>104</v>
       </c>
       <c r="AH50" s="33"/>
       <c r="AI50" s="33"/>
-      <c r="AJ50" s="258" t="s">
+      <c r="AJ50" s="267" t="s">
         <v>107</v>
       </c>
       <c r="AK50" s="33"/>
       <c r="AL50" s="33"/>
-      <c r="AM50" s="258" t="s">
+      <c r="AM50" s="267" t="s">
         <v>108</v>
       </c>
       <c r="AN50" s="33"/>
@@ -25541,66 +25555,66 @@
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
       <c r="I61" s="17"/>
-      <c r="J61" s="226" t="s">
+      <c r="J61" s="235" t="s">
         <v>112</v>
       </c>
-      <c r="K61" s="227"/>
-      <c r="L61" s="228" t="s">
+      <c r="K61" s="236"/>
+      <c r="L61" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="M61" s="229"/>
-      <c r="N61" s="228" t="s">
+      <c r="M61" s="238"/>
+      <c r="N61" s="237" t="s">
         <v>41</v>
       </c>
-      <c r="O61" s="229"/>
-      <c r="P61" s="228" t="s">
+      <c r="O61" s="238"/>
+      <c r="P61" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="Q61" s="229"/>
-      <c r="R61" s="228" t="s">
+      <c r="Q61" s="238"/>
+      <c r="R61" s="237" t="s">
         <v>43</v>
       </c>
-      <c r="S61" s="229"/>
-      <c r="T61" s="228" t="s">
+      <c r="S61" s="238"/>
+      <c r="T61" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="U61" s="229"/>
-      <c r="V61" s="228" t="s">
+      <c r="U61" s="238"/>
+      <c r="V61" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="W61" s="229"/>
-      <c r="X61" s="228" t="s">
+      <c r="W61" s="238"/>
+      <c r="X61" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="Y61" s="229"/>
-      <c r="Z61" s="226" t="s">
+      <c r="Y61" s="238"/>
+      <c r="Z61" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="AA61" s="227"/>
-      <c r="AB61" s="228" t="s">
+      <c r="AA61" s="236"/>
+      <c r="AB61" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="AC61" s="229"/>
-      <c r="AD61" s="244" t="s">
+      <c r="AC61" s="238"/>
+      <c r="AD61" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="AE61" s="245"/>
-      <c r="AF61" s="246"/>
-      <c r="AG61" s="250" t="s">
+      <c r="AE61" s="254"/>
+      <c r="AF61" s="255"/>
+      <c r="AG61" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="AH61" s="251"/>
-      <c r="AI61" s="252"/>
-      <c r="AJ61" s="244" t="s">
+      <c r="AH61" s="260"/>
+      <c r="AI61" s="261"/>
+      <c r="AJ61" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="AK61" s="245"/>
-      <c r="AL61" s="246"/>
-      <c r="AM61" s="250" t="s">
+      <c r="AK61" s="254"/>
+      <c r="AL61" s="255"/>
+      <c r="AM61" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="AN61" s="251"/>
-      <c r="AO61" s="256"/>
+      <c r="AN61" s="260"/>
+      <c r="AO61" s="265"/>
       <c r="AQ61" s="16">
         <f>EDATE(E62,1)</f>
         <v>44743</v>
@@ -25653,18 +25667,18 @@
       <c r="AA62" s="69"/>
       <c r="AB62" s="68"/>
       <c r="AC62" s="69"/>
-      <c r="AD62" s="247"/>
-      <c r="AE62" s="248"/>
-      <c r="AF62" s="249"/>
-      <c r="AG62" s="253"/>
-      <c r="AH62" s="254"/>
-      <c r="AI62" s="255"/>
-      <c r="AJ62" s="247"/>
-      <c r="AK62" s="248"/>
-      <c r="AL62" s="249"/>
-      <c r="AM62" s="253"/>
-      <c r="AN62" s="254"/>
-      <c r="AO62" s="257"/>
+      <c r="AD62" s="256"/>
+      <c r="AE62" s="257"/>
+      <c r="AF62" s="258"/>
+      <c r="AG62" s="262"/>
+      <c r="AH62" s="263"/>
+      <c r="AI62" s="264"/>
+      <c r="AJ62" s="256"/>
+      <c r="AK62" s="257"/>
+      <c r="AL62" s="258"/>
+      <c r="AM62" s="262"/>
+      <c r="AN62" s="263"/>
+      <c r="AO62" s="266"/>
       <c r="AQ62" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -25682,56 +25696,56 @@
       <c r="G63" s="71"/>
       <c r="H63" s="71"/>
       <c r="I63" s="72"/>
-      <c r="J63" s="235" t="s">
+      <c r="J63" s="244" t="s">
         <v>52</v>
       </c>
-      <c r="K63" s="236"/>
-      <c r="L63" s="237" t="s">
+      <c r="K63" s="245"/>
+      <c r="L63" s="246" t="s">
         <v>64</v>
       </c>
-      <c r="M63" s="238"/>
-      <c r="N63" s="238"/>
-      <c r="O63" s="238"/>
-      <c r="P63" s="238"/>
-      <c r="Q63" s="239"/>
-      <c r="R63" s="235" t="s">
+      <c r="M63" s="247"/>
+      <c r="N63" s="247"/>
+      <c r="O63" s="247"/>
+      <c r="P63" s="247"/>
+      <c r="Q63" s="248"/>
+      <c r="R63" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="S63" s="236"/>
-      <c r="T63" s="237" t="s">
+      <c r="S63" s="245"/>
+      <c r="T63" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="U63" s="238"/>
-      <c r="V63" s="238"/>
-      <c r="W63" s="239"/>
-      <c r="X63" s="235" t="s">
+      <c r="U63" s="247"/>
+      <c r="V63" s="247"/>
+      <c r="W63" s="248"/>
+      <c r="X63" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="Y63" s="236"/>
-      <c r="Z63" s="237">
+      <c r="Y63" s="245"/>
+      <c r="Z63" s="246">
         <v>2</v>
       </c>
-      <c r="AA63" s="238"/>
-      <c r="AB63" s="238"/>
-      <c r="AC63" s="239"/>
-      <c r="AD63" s="240" t="s">
+      <c r="AA63" s="247"/>
+      <c r="AB63" s="247"/>
+      <c r="AC63" s="248"/>
+      <c r="AD63" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="AE63" s="241"/>
-      <c r="AF63" s="242"/>
-      <c r="AG63" s="240" t="s">
+      <c r="AE63" s="250"/>
+      <c r="AF63" s="251"/>
+      <c r="AG63" s="249" t="s">
         <v>33</v>
       </c>
-      <c r="AH63" s="241"/>
-      <c r="AI63" s="242"/>
-      <c r="AJ63" s="240"/>
-      <c r="AK63" s="241"/>
-      <c r="AL63" s="242"/>
-      <c r="AM63" s="240" t="s">
+      <c r="AH63" s="250"/>
+      <c r="AI63" s="251"/>
+      <c r="AJ63" s="249"/>
+      <c r="AK63" s="250"/>
+      <c r="AL63" s="251"/>
+      <c r="AM63" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="AN63" s="241"/>
-      <c r="AO63" s="243"/>
+      <c r="AN63" s="250"/>
+      <c r="AO63" s="252"/>
     </row>
     <row r="64" spans="2:43" ht="17.850000000000001" customHeight="1">
       <c r="B64" s="52"/>
@@ -25741,349 +25755,349 @@
       <c r="J64" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="K64" s="179"/>
-      <c r="L64" s="179"/>
-      <c r="M64" s="179"/>
-      <c r="N64" s="179"/>
-      <c r="O64" s="179"/>
-      <c r="P64" s="179"/>
-      <c r="Q64" s="179"/>
-      <c r="R64" s="179"/>
-      <c r="S64" s="179"/>
-      <c r="T64" s="179"/>
-      <c r="U64" s="179"/>
-      <c r="V64" s="179"/>
-      <c r="W64" s="179"/>
-      <c r="X64" s="179"/>
-      <c r="Y64" s="179"/>
-      <c r="Z64" s="179"/>
-      <c r="AA64" s="179"/>
-      <c r="AB64" s="179"/>
-      <c r="AC64" s="230"/>
-      <c r="AD64" s="218"/>
-      <c r="AE64" s="219"/>
-      <c r="AF64" s="220"/>
-      <c r="AG64" s="218" t="s">
+      <c r="K64" s="188"/>
+      <c r="L64" s="188"/>
+      <c r="M64" s="188"/>
+      <c r="N64" s="188"/>
+      <c r="O64" s="188"/>
+      <c r="P64" s="188"/>
+      <c r="Q64" s="188"/>
+      <c r="R64" s="188"/>
+      <c r="S64" s="188"/>
+      <c r="T64" s="188"/>
+      <c r="U64" s="188"/>
+      <c r="V64" s="188"/>
+      <c r="W64" s="188"/>
+      <c r="X64" s="188"/>
+      <c r="Y64" s="188"/>
+      <c r="Z64" s="188"/>
+      <c r="AA64" s="188"/>
+      <c r="AB64" s="188"/>
+      <c r="AC64" s="239"/>
+      <c r="AD64" s="227"/>
+      <c r="AE64" s="228"/>
+      <c r="AF64" s="229"/>
+      <c r="AG64" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="AH64" s="219"/>
-      <c r="AI64" s="220"/>
-      <c r="AJ64" s="218"/>
-      <c r="AK64" s="219"/>
-      <c r="AL64" s="220"/>
-      <c r="AM64" s="218" t="s">
+      <c r="AH64" s="228"/>
+      <c r="AI64" s="229"/>
+      <c r="AJ64" s="227"/>
+      <c r="AK64" s="228"/>
+      <c r="AL64" s="229"/>
+      <c r="AM64" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="AN64" s="219"/>
-      <c r="AO64" s="221"/>
+      <c r="AN64" s="228"/>
+      <c r="AO64" s="230"/>
     </row>
     <row r="65" spans="2:43">
       <c r="B65" s="52"/>
       <c r="C65" s="53"/>
       <c r="D65" s="6"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="231"/>
-      <c r="K65" s="182"/>
-      <c r="L65" s="182"/>
-      <c r="M65" s="182"/>
-      <c r="N65" s="182"/>
-      <c r="O65" s="182"/>
-      <c r="P65" s="182"/>
-      <c r="Q65" s="182"/>
-      <c r="R65" s="182"/>
-      <c r="S65" s="182"/>
-      <c r="T65" s="182"/>
-      <c r="U65" s="182"/>
-      <c r="V65" s="182"/>
-      <c r="W65" s="182"/>
-      <c r="X65" s="182"/>
-      <c r="Y65" s="182"/>
-      <c r="Z65" s="182"/>
-      <c r="AA65" s="182"/>
-      <c r="AB65" s="182"/>
-      <c r="AC65" s="232"/>
-      <c r="AD65" s="218"/>
-      <c r="AE65" s="219"/>
-      <c r="AF65" s="220"/>
-      <c r="AG65" s="218" t="s">
+      <c r="J65" s="240"/>
+      <c r="K65" s="191"/>
+      <c r="L65" s="191"/>
+      <c r="M65" s="191"/>
+      <c r="N65" s="191"/>
+      <c r="O65" s="191"/>
+      <c r="P65" s="191"/>
+      <c r="Q65" s="191"/>
+      <c r="R65" s="191"/>
+      <c r="S65" s="191"/>
+      <c r="T65" s="191"/>
+      <c r="U65" s="191"/>
+      <c r="V65" s="191"/>
+      <c r="W65" s="191"/>
+      <c r="X65" s="191"/>
+      <c r="Y65" s="191"/>
+      <c r="Z65" s="191"/>
+      <c r="AA65" s="191"/>
+      <c r="AB65" s="191"/>
+      <c r="AC65" s="241"/>
+      <c r="AD65" s="227"/>
+      <c r="AE65" s="228"/>
+      <c r="AF65" s="229"/>
+      <c r="AG65" s="227" t="s">
         <v>61</v>
       </c>
-      <c r="AH65" s="219"/>
-      <c r="AI65" s="220"/>
-      <c r="AJ65" s="218"/>
-      <c r="AK65" s="219"/>
-      <c r="AL65" s="220"/>
-      <c r="AM65" s="218"/>
-      <c r="AN65" s="219"/>
-      <c r="AO65" s="221"/>
+      <c r="AH65" s="228"/>
+      <c r="AI65" s="229"/>
+      <c r="AJ65" s="227"/>
+      <c r="AK65" s="228"/>
+      <c r="AL65" s="229"/>
+      <c r="AM65" s="227"/>
+      <c r="AN65" s="228"/>
+      <c r="AO65" s="230"/>
     </row>
     <row r="66" spans="2:43">
       <c r="B66" s="52"/>
       <c r="C66" s="53"/>
       <c r="D66" s="6"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="231"/>
-      <c r="K66" s="182"/>
-      <c r="L66" s="182"/>
-      <c r="M66" s="182"/>
-      <c r="N66" s="182"/>
-      <c r="O66" s="182"/>
-      <c r="P66" s="182"/>
-      <c r="Q66" s="182"/>
-      <c r="R66" s="182"/>
-      <c r="S66" s="182"/>
-      <c r="T66" s="182"/>
-      <c r="U66" s="182"/>
-      <c r="V66" s="182"/>
-      <c r="W66" s="182"/>
-      <c r="X66" s="182"/>
-      <c r="Y66" s="182"/>
-      <c r="Z66" s="182"/>
-      <c r="AA66" s="182"/>
-      <c r="AB66" s="182"/>
-      <c r="AC66" s="232"/>
-      <c r="AD66" s="218"/>
-      <c r="AE66" s="219"/>
-      <c r="AF66" s="220"/>
-      <c r="AG66" s="218" t="s">
+      <c r="J66" s="240"/>
+      <c r="K66" s="191"/>
+      <c r="L66" s="191"/>
+      <c r="M66" s="191"/>
+      <c r="N66" s="191"/>
+      <c r="O66" s="191"/>
+      <c r="P66" s="191"/>
+      <c r="Q66" s="191"/>
+      <c r="R66" s="191"/>
+      <c r="S66" s="191"/>
+      <c r="T66" s="191"/>
+      <c r="U66" s="191"/>
+      <c r="V66" s="191"/>
+      <c r="W66" s="191"/>
+      <c r="X66" s="191"/>
+      <c r="Y66" s="191"/>
+      <c r="Z66" s="191"/>
+      <c r="AA66" s="191"/>
+      <c r="AB66" s="191"/>
+      <c r="AC66" s="241"/>
+      <c r="AD66" s="227"/>
+      <c r="AE66" s="228"/>
+      <c r="AF66" s="229"/>
+      <c r="AG66" s="227" t="s">
         <v>62</v>
       </c>
-      <c r="AH66" s="219"/>
-      <c r="AI66" s="220"/>
-      <c r="AJ66" s="218"/>
-      <c r="AK66" s="219"/>
-      <c r="AL66" s="220"/>
-      <c r="AM66" s="218"/>
-      <c r="AN66" s="219"/>
-      <c r="AO66" s="221"/>
+      <c r="AH66" s="228"/>
+      <c r="AI66" s="229"/>
+      <c r="AJ66" s="227"/>
+      <c r="AK66" s="228"/>
+      <c r="AL66" s="229"/>
+      <c r="AM66" s="227"/>
+      <c r="AN66" s="228"/>
+      <c r="AO66" s="230"/>
     </row>
     <row r="67" spans="2:43">
       <c r="B67" s="52"/>
       <c r="C67" s="53"/>
       <c r="D67" s="6"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="231"/>
-      <c r="K67" s="182"/>
-      <c r="L67" s="182"/>
-      <c r="M67" s="182"/>
-      <c r="N67" s="182"/>
-      <c r="O67" s="182"/>
-      <c r="P67" s="182"/>
-      <c r="Q67" s="182"/>
-      <c r="R67" s="182"/>
-      <c r="S67" s="182"/>
-      <c r="T67" s="182"/>
-      <c r="U67" s="182"/>
-      <c r="V67" s="182"/>
-      <c r="W67" s="182"/>
-      <c r="X67" s="182"/>
-      <c r="Y67" s="182"/>
-      <c r="Z67" s="182"/>
-      <c r="AA67" s="182"/>
-      <c r="AB67" s="182"/>
-      <c r="AC67" s="232"/>
-      <c r="AD67" s="218"/>
-      <c r="AE67" s="219"/>
-      <c r="AF67" s="220"/>
-      <c r="AG67" s="218"/>
-      <c r="AH67" s="219"/>
-      <c r="AI67" s="220"/>
-      <c r="AJ67" s="218"/>
-      <c r="AK67" s="219"/>
-      <c r="AL67" s="220"/>
-      <c r="AM67" s="218"/>
-      <c r="AN67" s="219"/>
-      <c r="AO67" s="221"/>
+      <c r="J67" s="240"/>
+      <c r="K67" s="191"/>
+      <c r="L67" s="191"/>
+      <c r="M67" s="191"/>
+      <c r="N67" s="191"/>
+      <c r="O67" s="191"/>
+      <c r="P67" s="191"/>
+      <c r="Q67" s="191"/>
+      <c r="R67" s="191"/>
+      <c r="S67" s="191"/>
+      <c r="T67" s="191"/>
+      <c r="U67" s="191"/>
+      <c r="V67" s="191"/>
+      <c r="W67" s="191"/>
+      <c r="X67" s="191"/>
+      <c r="Y67" s="191"/>
+      <c r="Z67" s="191"/>
+      <c r="AA67" s="191"/>
+      <c r="AB67" s="191"/>
+      <c r="AC67" s="241"/>
+      <c r="AD67" s="227"/>
+      <c r="AE67" s="228"/>
+      <c r="AF67" s="229"/>
+      <c r="AG67" s="227"/>
+      <c r="AH67" s="228"/>
+      <c r="AI67" s="229"/>
+      <c r="AJ67" s="227"/>
+      <c r="AK67" s="228"/>
+      <c r="AL67" s="229"/>
+      <c r="AM67" s="227"/>
+      <c r="AN67" s="228"/>
+      <c r="AO67" s="230"/>
     </row>
     <row r="68" spans="2:43">
       <c r="B68" s="52"/>
       <c r="C68" s="53"/>
       <c r="D68" s="6"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="231"/>
-      <c r="K68" s="182"/>
-      <c r="L68" s="182"/>
-      <c r="M68" s="182"/>
-      <c r="N68" s="182"/>
-      <c r="O68" s="182"/>
-      <c r="P68" s="182"/>
-      <c r="Q68" s="182"/>
-      <c r="R68" s="182"/>
-      <c r="S68" s="182"/>
-      <c r="T68" s="182"/>
-      <c r="U68" s="182"/>
-      <c r="V68" s="182"/>
-      <c r="W68" s="182"/>
-      <c r="X68" s="182"/>
-      <c r="Y68" s="182"/>
-      <c r="Z68" s="182"/>
-      <c r="AA68" s="182"/>
-      <c r="AB68" s="182"/>
-      <c r="AC68" s="232"/>
-      <c r="AD68" s="218"/>
-      <c r="AE68" s="219"/>
-      <c r="AF68" s="220"/>
-      <c r="AG68" s="218"/>
-      <c r="AH68" s="219"/>
-      <c r="AI68" s="220"/>
-      <c r="AJ68" s="218"/>
-      <c r="AK68" s="219"/>
-      <c r="AL68" s="220"/>
-      <c r="AM68" s="218"/>
-      <c r="AN68" s="219"/>
-      <c r="AO68" s="221"/>
+      <c r="J68" s="240"/>
+      <c r="K68" s="191"/>
+      <c r="L68" s="191"/>
+      <c r="M68" s="191"/>
+      <c r="N68" s="191"/>
+      <c r="O68" s="191"/>
+      <c r="P68" s="191"/>
+      <c r="Q68" s="191"/>
+      <c r="R68" s="191"/>
+      <c r="S68" s="191"/>
+      <c r="T68" s="191"/>
+      <c r="U68" s="191"/>
+      <c r="V68" s="191"/>
+      <c r="W68" s="191"/>
+      <c r="X68" s="191"/>
+      <c r="Y68" s="191"/>
+      <c r="Z68" s="191"/>
+      <c r="AA68" s="191"/>
+      <c r="AB68" s="191"/>
+      <c r="AC68" s="241"/>
+      <c r="AD68" s="227"/>
+      <c r="AE68" s="228"/>
+      <c r="AF68" s="229"/>
+      <c r="AG68" s="227"/>
+      <c r="AH68" s="228"/>
+      <c r="AI68" s="229"/>
+      <c r="AJ68" s="227"/>
+      <c r="AK68" s="228"/>
+      <c r="AL68" s="229"/>
+      <c r="AM68" s="227"/>
+      <c r="AN68" s="228"/>
+      <c r="AO68" s="230"/>
     </row>
     <row r="69" spans="2:43">
       <c r="B69" s="52"/>
       <c r="C69" s="53"/>
       <c r="D69" s="6"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="231"/>
-      <c r="K69" s="182"/>
-      <c r="L69" s="182"/>
-      <c r="M69" s="182"/>
-      <c r="N69" s="182"/>
-      <c r="O69" s="182"/>
-      <c r="P69" s="182"/>
-      <c r="Q69" s="182"/>
-      <c r="R69" s="182"/>
-      <c r="S69" s="182"/>
-      <c r="T69" s="182"/>
-      <c r="U69" s="182"/>
-      <c r="V69" s="182"/>
-      <c r="W69" s="182"/>
-      <c r="X69" s="182"/>
-      <c r="Y69" s="182"/>
-      <c r="Z69" s="182"/>
-      <c r="AA69" s="182"/>
-      <c r="AB69" s="182"/>
-      <c r="AC69" s="232"/>
-      <c r="AD69" s="218"/>
-      <c r="AE69" s="219"/>
-      <c r="AF69" s="220"/>
-      <c r="AG69" s="218"/>
-      <c r="AH69" s="219"/>
-      <c r="AI69" s="220"/>
-      <c r="AJ69" s="218"/>
-      <c r="AK69" s="219"/>
-      <c r="AL69" s="220"/>
-      <c r="AM69" s="218"/>
-      <c r="AN69" s="219"/>
-      <c r="AO69" s="221"/>
+      <c r="J69" s="240"/>
+      <c r="K69" s="191"/>
+      <c r="L69" s="191"/>
+      <c r="M69" s="191"/>
+      <c r="N69" s="191"/>
+      <c r="O69" s="191"/>
+      <c r="P69" s="191"/>
+      <c r="Q69" s="191"/>
+      <c r="R69" s="191"/>
+      <c r="S69" s="191"/>
+      <c r="T69" s="191"/>
+      <c r="U69" s="191"/>
+      <c r="V69" s="191"/>
+      <c r="W69" s="191"/>
+      <c r="X69" s="191"/>
+      <c r="Y69" s="191"/>
+      <c r="Z69" s="191"/>
+      <c r="AA69" s="191"/>
+      <c r="AB69" s="191"/>
+      <c r="AC69" s="241"/>
+      <c r="AD69" s="227"/>
+      <c r="AE69" s="228"/>
+      <c r="AF69" s="229"/>
+      <c r="AG69" s="227"/>
+      <c r="AH69" s="228"/>
+      <c r="AI69" s="229"/>
+      <c r="AJ69" s="227"/>
+      <c r="AK69" s="228"/>
+      <c r="AL69" s="229"/>
+      <c r="AM69" s="227"/>
+      <c r="AN69" s="228"/>
+      <c r="AO69" s="230"/>
     </row>
     <row r="70" spans="2:43">
       <c r="B70" s="52"/>
       <c r="C70" s="53"/>
       <c r="D70" s="6"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="231"/>
-      <c r="K70" s="182"/>
-      <c r="L70" s="182"/>
-      <c r="M70" s="182"/>
-      <c r="N70" s="182"/>
-      <c r="O70" s="182"/>
-      <c r="P70" s="182"/>
-      <c r="Q70" s="182"/>
-      <c r="R70" s="182"/>
-      <c r="S70" s="182"/>
-      <c r="T70" s="182"/>
-      <c r="U70" s="182"/>
-      <c r="V70" s="182"/>
-      <c r="W70" s="182"/>
-      <c r="X70" s="182"/>
-      <c r="Y70" s="182"/>
-      <c r="Z70" s="182"/>
-      <c r="AA70" s="182"/>
-      <c r="AB70" s="182"/>
-      <c r="AC70" s="232"/>
-      <c r="AD70" s="218"/>
-      <c r="AE70" s="219"/>
-      <c r="AF70" s="220"/>
-      <c r="AG70" s="218"/>
-      <c r="AH70" s="219"/>
-      <c r="AI70" s="220"/>
-      <c r="AJ70" s="218"/>
-      <c r="AK70" s="219"/>
-      <c r="AL70" s="220"/>
-      <c r="AM70" s="218"/>
-      <c r="AN70" s="219"/>
-      <c r="AO70" s="221"/>
+      <c r="J70" s="240"/>
+      <c r="K70" s="191"/>
+      <c r="L70" s="191"/>
+      <c r="M70" s="191"/>
+      <c r="N70" s="191"/>
+      <c r="O70" s="191"/>
+      <c r="P70" s="191"/>
+      <c r="Q70" s="191"/>
+      <c r="R70" s="191"/>
+      <c r="S70" s="191"/>
+      <c r="T70" s="191"/>
+      <c r="U70" s="191"/>
+      <c r="V70" s="191"/>
+      <c r="W70" s="191"/>
+      <c r="X70" s="191"/>
+      <c r="Y70" s="191"/>
+      <c r="Z70" s="191"/>
+      <c r="AA70" s="191"/>
+      <c r="AB70" s="191"/>
+      <c r="AC70" s="241"/>
+      <c r="AD70" s="227"/>
+      <c r="AE70" s="228"/>
+      <c r="AF70" s="229"/>
+      <c r="AG70" s="227"/>
+      <c r="AH70" s="228"/>
+      <c r="AI70" s="229"/>
+      <c r="AJ70" s="227"/>
+      <c r="AK70" s="228"/>
+      <c r="AL70" s="229"/>
+      <c r="AM70" s="227"/>
+      <c r="AN70" s="228"/>
+      <c r="AO70" s="230"/>
     </row>
     <row r="71" spans="2:43">
       <c r="B71" s="52"/>
       <c r="C71" s="53"/>
       <c r="D71" s="6"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="231"/>
-      <c r="K71" s="182"/>
-      <c r="L71" s="182"/>
-      <c r="M71" s="182"/>
-      <c r="N71" s="182"/>
-      <c r="O71" s="182"/>
-      <c r="P71" s="182"/>
-      <c r="Q71" s="182"/>
-      <c r="R71" s="182"/>
-      <c r="S71" s="182"/>
-      <c r="T71" s="182"/>
-      <c r="U71" s="182"/>
-      <c r="V71" s="182"/>
-      <c r="W71" s="182"/>
-      <c r="X71" s="182"/>
-      <c r="Y71" s="182"/>
-      <c r="Z71" s="182"/>
-      <c r="AA71" s="182"/>
-      <c r="AB71" s="182"/>
-      <c r="AC71" s="232"/>
-      <c r="AD71" s="218"/>
-      <c r="AE71" s="219"/>
-      <c r="AF71" s="220"/>
-      <c r="AG71" s="218"/>
-      <c r="AH71" s="219"/>
-      <c r="AI71" s="220"/>
-      <c r="AJ71" s="218"/>
-      <c r="AK71" s="219"/>
-      <c r="AL71" s="220"/>
-      <c r="AM71" s="218"/>
-      <c r="AN71" s="219"/>
-      <c r="AO71" s="221"/>
+      <c r="J71" s="240"/>
+      <c r="K71" s="191"/>
+      <c r="L71" s="191"/>
+      <c r="M71" s="191"/>
+      <c r="N71" s="191"/>
+      <c r="O71" s="191"/>
+      <c r="P71" s="191"/>
+      <c r="Q71" s="191"/>
+      <c r="R71" s="191"/>
+      <c r="S71" s="191"/>
+      <c r="T71" s="191"/>
+      <c r="U71" s="191"/>
+      <c r="V71" s="191"/>
+      <c r="W71" s="191"/>
+      <c r="X71" s="191"/>
+      <c r="Y71" s="191"/>
+      <c r="Z71" s="191"/>
+      <c r="AA71" s="191"/>
+      <c r="AB71" s="191"/>
+      <c r="AC71" s="241"/>
+      <c r="AD71" s="227"/>
+      <c r="AE71" s="228"/>
+      <c r="AF71" s="229"/>
+      <c r="AG71" s="227"/>
+      <c r="AH71" s="228"/>
+      <c r="AI71" s="229"/>
+      <c r="AJ71" s="227"/>
+      <c r="AK71" s="228"/>
+      <c r="AL71" s="229"/>
+      <c r="AM71" s="227"/>
+      <c r="AN71" s="228"/>
+      <c r="AO71" s="230"/>
     </row>
     <row r="72" spans="2:43">
       <c r="B72" s="52"/>
       <c r="C72" s="53"/>
       <c r="D72" s="6"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="231"/>
-      <c r="K72" s="182"/>
-      <c r="L72" s="182"/>
-      <c r="M72" s="182"/>
-      <c r="N72" s="182"/>
-      <c r="O72" s="182"/>
-      <c r="P72" s="182"/>
-      <c r="Q72" s="182"/>
-      <c r="R72" s="182"/>
-      <c r="S72" s="182"/>
-      <c r="T72" s="182"/>
-      <c r="U72" s="182"/>
-      <c r="V72" s="182"/>
-      <c r="W72" s="182"/>
-      <c r="X72" s="182"/>
-      <c r="Y72" s="182"/>
-      <c r="Z72" s="182"/>
-      <c r="AA72" s="182"/>
-      <c r="AB72" s="182"/>
-      <c r="AC72" s="232"/>
-      <c r="AD72" s="218"/>
-      <c r="AE72" s="219"/>
-      <c r="AF72" s="220"/>
-      <c r="AG72" s="218"/>
-      <c r="AH72" s="219"/>
-      <c r="AI72" s="220"/>
-      <c r="AJ72" s="218"/>
-      <c r="AK72" s="219"/>
-      <c r="AL72" s="220"/>
-      <c r="AM72" s="218"/>
-      <c r="AN72" s="219"/>
-      <c r="AO72" s="221"/>
+      <c r="J72" s="240"/>
+      <c r="K72" s="191"/>
+      <c r="L72" s="191"/>
+      <c r="M72" s="191"/>
+      <c r="N72" s="191"/>
+      <c r="O72" s="191"/>
+      <c r="P72" s="191"/>
+      <c r="Q72" s="191"/>
+      <c r="R72" s="191"/>
+      <c r="S72" s="191"/>
+      <c r="T72" s="191"/>
+      <c r="U72" s="191"/>
+      <c r="V72" s="191"/>
+      <c r="W72" s="191"/>
+      <c r="X72" s="191"/>
+      <c r="Y72" s="191"/>
+      <c r="Z72" s="191"/>
+      <c r="AA72" s="191"/>
+      <c r="AB72" s="191"/>
+      <c r="AC72" s="241"/>
+      <c r="AD72" s="227"/>
+      <c r="AE72" s="228"/>
+      <c r="AF72" s="229"/>
+      <c r="AG72" s="227"/>
+      <c r="AH72" s="228"/>
+      <c r="AI72" s="229"/>
+      <c r="AJ72" s="227"/>
+      <c r="AK72" s="228"/>
+      <c r="AL72" s="229"/>
+      <c r="AM72" s="227"/>
+      <c r="AN72" s="228"/>
+      <c r="AO72" s="230"/>
     </row>
     <row r="73" spans="2:43" ht="19.5" thickBot="1">
       <c r="B73" s="75"/>
@@ -26094,38 +26108,38 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="233"/>
-      <c r="K73" s="185"/>
-      <c r="L73" s="185"/>
-      <c r="M73" s="185"/>
-      <c r="N73" s="185"/>
-      <c r="O73" s="185"/>
-      <c r="P73" s="185"/>
-      <c r="Q73" s="185"/>
-      <c r="R73" s="185"/>
-      <c r="S73" s="185"/>
-      <c r="T73" s="185"/>
-      <c r="U73" s="185"/>
-      <c r="V73" s="185"/>
-      <c r="W73" s="185"/>
-      <c r="X73" s="185"/>
-      <c r="Y73" s="185"/>
-      <c r="Z73" s="185"/>
-      <c r="AA73" s="185"/>
-      <c r="AB73" s="185"/>
-      <c r="AC73" s="234"/>
-      <c r="AD73" s="222"/>
-      <c r="AE73" s="223"/>
-      <c r="AF73" s="224"/>
-      <c r="AG73" s="222"/>
-      <c r="AH73" s="223"/>
-      <c r="AI73" s="224"/>
-      <c r="AJ73" s="222"/>
-      <c r="AK73" s="223"/>
-      <c r="AL73" s="224"/>
-      <c r="AM73" s="222"/>
-      <c r="AN73" s="223"/>
-      <c r="AO73" s="225"/>
+      <c r="J73" s="242"/>
+      <c r="K73" s="194"/>
+      <c r="L73" s="194"/>
+      <c r="M73" s="194"/>
+      <c r="N73" s="194"/>
+      <c r="O73" s="194"/>
+      <c r="P73" s="194"/>
+      <c r="Q73" s="194"/>
+      <c r="R73" s="194"/>
+      <c r="S73" s="194"/>
+      <c r="T73" s="194"/>
+      <c r="U73" s="194"/>
+      <c r="V73" s="194"/>
+      <c r="W73" s="194"/>
+      <c r="X73" s="194"/>
+      <c r="Y73" s="194"/>
+      <c r="Z73" s="194"/>
+      <c r="AA73" s="194"/>
+      <c r="AB73" s="194"/>
+      <c r="AC73" s="243"/>
+      <c r="AD73" s="231"/>
+      <c r="AE73" s="232"/>
+      <c r="AF73" s="233"/>
+      <c r="AG73" s="231"/>
+      <c r="AH73" s="232"/>
+      <c r="AI73" s="233"/>
+      <c r="AJ73" s="231"/>
+      <c r="AK73" s="232"/>
+      <c r="AL73" s="233"/>
+      <c r="AM73" s="231"/>
+      <c r="AN73" s="232"/>
+      <c r="AO73" s="234"/>
     </row>
     <row r="74" spans="2:43" ht="27.6" customHeight="1">
       <c r="B74" s="52">
@@ -26218,33 +26232,33 @@
       <c r="G75" s="66"/>
       <c r="H75" s="66"/>
       <c r="I75" s="67"/>
-      <c r="J75" s="216"/>
+      <c r="J75" s="225"/>
       <c r="K75" s="68"/>
-      <c r="L75" s="216"/>
+      <c r="L75" s="225"/>
       <c r="M75" s="68"/>
-      <c r="N75" s="216" t="s">
+      <c r="N75" s="225" t="s">
         <v>136</v>
       </c>
       <c r="O75" s="68"/>
-      <c r="P75" s="216" t="s">
+      <c r="P75" s="225" t="s">
         <v>136</v>
       </c>
       <c r="Q75" s="68"/>
-      <c r="R75" s="216" t="s">
+      <c r="R75" s="225" t="s">
         <v>136</v>
       </c>
       <c r="S75" s="68"/>
-      <c r="T75" s="216" t="s">
+      <c r="T75" s="225" t="s">
         <v>136</v>
       </c>
       <c r="U75" s="68"/>
-      <c r="V75" s="216"/>
+      <c r="V75" s="225"/>
       <c r="W75" s="68"/>
-      <c r="X75" s="216"/>
+      <c r="X75" s="225"/>
       <c r="Y75" s="68"/>
-      <c r="Z75" s="216"/>
+      <c r="Z75" s="225"/>
       <c r="AA75" s="68"/>
-      <c r="AB75" s="216"/>
+      <c r="AB75" s="225"/>
       <c r="AC75" s="68"/>
       <c r="AD75" s="62"/>
       <c r="AE75" s="62"/>
@@ -26279,7 +26293,7 @@
         <v>52</v>
       </c>
       <c r="K76" s="30"/>
-      <c r="L76" s="217" t="s">
+      <c r="L76" s="226" t="s">
         <v>102</v>
       </c>
       <c r="M76" s="31"/>
@@ -26291,7 +26305,7 @@
         <v>53</v>
       </c>
       <c r="S76" s="30"/>
-      <c r="T76" s="217" t="s">
+      <c r="T76" s="226" t="s">
         <v>103</v>
       </c>
       <c r="U76" s="31"/>
@@ -26307,26 +26321,26 @@
       <c r="AA76" s="31"/>
       <c r="AB76" s="31"/>
       <c r="AC76" s="32"/>
-      <c r="AD76" s="214" t="s">
+      <c r="AD76" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="AE76" s="214"/>
-      <c r="AF76" s="214"/>
-      <c r="AG76" s="208" t="s">
+      <c r="AE76" s="223"/>
+      <c r="AF76" s="223"/>
+      <c r="AG76" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="AH76" s="208"/>
-      <c r="AI76" s="208"/>
-      <c r="AJ76" s="214" t="s">
+      <c r="AH76" s="217"/>
+      <c r="AI76" s="217"/>
+      <c r="AJ76" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="AK76" s="214"/>
-      <c r="AL76" s="214"/>
-      <c r="AM76" s="214" t="s">
+      <c r="AK76" s="223"/>
+      <c r="AL76" s="223"/>
+      <c r="AM76" s="223" t="s">
         <v>57</v>
       </c>
-      <c r="AN76" s="214"/>
-      <c r="AO76" s="215"/>
+      <c r="AN76" s="223"/>
+      <c r="AO76" s="224"/>
     </row>
     <row r="77" spans="2:43">
       <c r="B77" s="52"/>
@@ -26355,24 +26369,24 @@
       <c r="AA77" s="36"/>
       <c r="AB77" s="36"/>
       <c r="AC77" s="37"/>
-      <c r="AD77" s="208" t="s">
+      <c r="AD77" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="AE77" s="208"/>
-      <c r="AF77" s="208"/>
-      <c r="AG77" s="208" t="s">
+      <c r="AE77" s="217"/>
+      <c r="AF77" s="217"/>
+      <c r="AG77" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="AH77" s="208"/>
-      <c r="AI77" s="208"/>
-      <c r="AJ77" s="208"/>
-      <c r="AK77" s="208"/>
-      <c r="AL77" s="208"/>
-      <c r="AM77" s="208" t="s">
+      <c r="AH77" s="217"/>
+      <c r="AI77" s="217"/>
+      <c r="AJ77" s="217"/>
+      <c r="AK77" s="217"/>
+      <c r="AL77" s="217"/>
+      <c r="AM77" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="AN77" s="208"/>
-      <c r="AO77" s="209"/>
+      <c r="AN77" s="217"/>
+      <c r="AO77" s="218"/>
     </row>
     <row r="78" spans="2:43">
       <c r="B78" s="52"/>
@@ -26399,24 +26413,24 @@
       <c r="AA78" s="39"/>
       <c r="AB78" s="39"/>
       <c r="AC78" s="40"/>
-      <c r="AD78" s="208" t="s">
+      <c r="AD78" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="AE78" s="208"/>
-      <c r="AF78" s="208"/>
-      <c r="AG78" s="208" t="s">
+      <c r="AE78" s="217"/>
+      <c r="AF78" s="217"/>
+      <c r="AG78" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="AH78" s="208"/>
-      <c r="AI78" s="208"/>
-      <c r="AJ78" s="208"/>
-      <c r="AK78" s="208"/>
-      <c r="AL78" s="208"/>
-      <c r="AM78" s="208" t="s">
+      <c r="AH78" s="217"/>
+      <c r="AI78" s="217"/>
+      <c r="AJ78" s="217"/>
+      <c r="AK78" s="217"/>
+      <c r="AL78" s="217"/>
+      <c r="AM78" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="AN78" s="208"/>
-      <c r="AO78" s="209"/>
+      <c r="AN78" s="217"/>
+      <c r="AO78" s="218"/>
     </row>
     <row r="79" spans="2:43">
       <c r="B79" s="52"/>
@@ -26443,24 +26457,24 @@
       <c r="AA79" s="39"/>
       <c r="AB79" s="39"/>
       <c r="AC79" s="40"/>
-      <c r="AD79" s="208" t="s">
+      <c r="AD79" s="217" t="s">
         <v>59</v>
       </c>
-      <c r="AE79" s="208"/>
-      <c r="AF79" s="208"/>
-      <c r="AG79" s="208" t="s">
+      <c r="AE79" s="217"/>
+      <c r="AF79" s="217"/>
+      <c r="AG79" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="AH79" s="208"/>
-      <c r="AI79" s="208"/>
-      <c r="AJ79" s="208"/>
-      <c r="AK79" s="208"/>
-      <c r="AL79" s="208"/>
-      <c r="AM79" s="208" t="s">
+      <c r="AH79" s="217"/>
+      <c r="AI79" s="217"/>
+      <c r="AJ79" s="217"/>
+      <c r="AK79" s="217"/>
+      <c r="AL79" s="217"/>
+      <c r="AM79" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="AN79" s="208"/>
-      <c r="AO79" s="209"/>
+      <c r="AN79" s="217"/>
+      <c r="AO79" s="218"/>
     </row>
     <row r="80" spans="2:43">
       <c r="B80" s="52"/>
@@ -26487,22 +26501,22 @@
       <c r="AA80" s="39"/>
       <c r="AB80" s="39"/>
       <c r="AC80" s="40"/>
-      <c r="AD80" s="208" t="s">
+      <c r="AD80" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="AE80" s="208"/>
-      <c r="AF80" s="208"/>
-      <c r="AG80" s="208" t="s">
+      <c r="AE80" s="217"/>
+      <c r="AF80" s="217"/>
+      <c r="AG80" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="AH80" s="208"/>
-      <c r="AI80" s="208"/>
-      <c r="AJ80" s="208"/>
-      <c r="AK80" s="208"/>
-      <c r="AL80" s="208"/>
-      <c r="AM80" s="208"/>
-      <c r="AN80" s="208"/>
-      <c r="AO80" s="209"/>
+      <c r="AH80" s="217"/>
+      <c r="AI80" s="217"/>
+      <c r="AJ80" s="217"/>
+      <c r="AK80" s="217"/>
+      <c r="AL80" s="217"/>
+      <c r="AM80" s="217"/>
+      <c r="AN80" s="217"/>
+      <c r="AO80" s="218"/>
     </row>
     <row r="81" spans="2:43">
       <c r="B81" s="52"/>
@@ -26529,22 +26543,22 @@
       <c r="AA81" s="39"/>
       <c r="AB81" s="39"/>
       <c r="AC81" s="40"/>
-      <c r="AD81" s="208" t="s">
+      <c r="AD81" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="AE81" s="208"/>
-      <c r="AF81" s="208"/>
-      <c r="AG81" s="208" t="s">
+      <c r="AE81" s="217"/>
+      <c r="AF81" s="217"/>
+      <c r="AG81" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AH81" s="208"/>
-      <c r="AI81" s="208"/>
-      <c r="AJ81" s="208"/>
-      <c r="AK81" s="208"/>
-      <c r="AL81" s="208"/>
-      <c r="AM81" s="208"/>
-      <c r="AN81" s="208"/>
-      <c r="AO81" s="209"/>
+      <c r="AH81" s="217"/>
+      <c r="AI81" s="217"/>
+      <c r="AJ81" s="217"/>
+      <c r="AK81" s="217"/>
+      <c r="AL81" s="217"/>
+      <c r="AM81" s="217"/>
+      <c r="AN81" s="217"/>
+      <c r="AO81" s="218"/>
     </row>
     <row r="82" spans="2:43">
       <c r="B82" s="52"/>
@@ -26571,20 +26585,20 @@
       <c r="AA82" s="39"/>
       <c r="AB82" s="39"/>
       <c r="AC82" s="40"/>
-      <c r="AD82" s="210"/>
-      <c r="AE82" s="211"/>
-      <c r="AF82" s="212"/>
-      <c r="AG82" s="210" t="s">
+      <c r="AD82" s="219"/>
+      <c r="AE82" s="220"/>
+      <c r="AF82" s="221"/>
+      <c r="AG82" s="219" t="s">
         <v>61</v>
       </c>
-      <c r="AH82" s="211"/>
-      <c r="AI82" s="212"/>
-      <c r="AJ82" s="210"/>
-      <c r="AK82" s="211"/>
-      <c r="AL82" s="212"/>
-      <c r="AM82" s="210"/>
-      <c r="AN82" s="211"/>
-      <c r="AO82" s="213"/>
+      <c r="AH82" s="220"/>
+      <c r="AI82" s="221"/>
+      <c r="AJ82" s="219"/>
+      <c r="AK82" s="220"/>
+      <c r="AL82" s="221"/>
+      <c r="AM82" s="219"/>
+      <c r="AN82" s="220"/>
+      <c r="AO82" s="222"/>
     </row>
     <row r="83" spans="2:43">
       <c r="B83" s="52"/>
@@ -26611,20 +26625,20 @@
       <c r="AA83" s="39"/>
       <c r="AB83" s="39"/>
       <c r="AC83" s="40"/>
-      <c r="AD83" s="208"/>
-      <c r="AE83" s="208"/>
-      <c r="AF83" s="208"/>
-      <c r="AG83" s="208" t="s">
+      <c r="AD83" s="217"/>
+      <c r="AE83" s="217"/>
+      <c r="AF83" s="217"/>
+      <c r="AG83" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="AH83" s="208"/>
-      <c r="AI83" s="208"/>
-      <c r="AJ83" s="208"/>
-      <c r="AK83" s="208"/>
-      <c r="AL83" s="208"/>
-      <c r="AM83" s="208"/>
-      <c r="AN83" s="208"/>
-      <c r="AO83" s="209"/>
+      <c r="AH83" s="217"/>
+      <c r="AI83" s="217"/>
+      <c r="AJ83" s="217"/>
+      <c r="AK83" s="217"/>
+      <c r="AL83" s="217"/>
+      <c r="AM83" s="217"/>
+      <c r="AN83" s="217"/>
+      <c r="AO83" s="218"/>
     </row>
     <row r="84" spans="2:43">
       <c r="B84" s="52"/>
@@ -26651,20 +26665,20 @@
       <c r="AA84" s="39"/>
       <c r="AB84" s="39"/>
       <c r="AC84" s="40"/>
-      <c r="AD84" s="208"/>
-      <c r="AE84" s="208"/>
-      <c r="AF84" s="208"/>
-      <c r="AG84" s="208" t="s">
+      <c r="AD84" s="217"/>
+      <c r="AE84" s="217"/>
+      <c r="AF84" s="217"/>
+      <c r="AG84" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="AH84" s="208"/>
-      <c r="AI84" s="208"/>
-      <c r="AJ84" s="208"/>
-      <c r="AK84" s="208"/>
-      <c r="AL84" s="208"/>
-      <c r="AM84" s="208"/>
-      <c r="AN84" s="208"/>
-      <c r="AO84" s="209"/>
+      <c r="AH84" s="217"/>
+      <c r="AI84" s="217"/>
+      <c r="AJ84" s="217"/>
+      <c r="AK84" s="217"/>
+      <c r="AL84" s="217"/>
+      <c r="AM84" s="217"/>
+      <c r="AN84" s="217"/>
+      <c r="AO84" s="218"/>
     </row>
     <row r="85" spans="2:43">
       <c r="B85" s="52"/>
@@ -26908,18 +26922,18 @@
       <c r="AA89" s="31"/>
       <c r="AB89" s="31"/>
       <c r="AC89" s="32"/>
-      <c r="AD89" s="206"/>
-      <c r="AE89" s="206"/>
-      <c r="AF89" s="206"/>
+      <c r="AD89" s="215"/>
+      <c r="AE89" s="215"/>
+      <c r="AF89" s="215"/>
       <c r="AG89" s="26"/>
       <c r="AH89" s="26"/>
       <c r="AI89" s="26"/>
-      <c r="AJ89" s="206"/>
-      <c r="AK89" s="206"/>
-      <c r="AL89" s="206"/>
-      <c r="AM89" s="206"/>
-      <c r="AN89" s="206"/>
-      <c r="AO89" s="207"/>
+      <c r="AJ89" s="215"/>
+      <c r="AK89" s="215"/>
+      <c r="AL89" s="215"/>
+      <c r="AM89" s="215"/>
+      <c r="AN89" s="215"/>
+      <c r="AO89" s="216"/>
     </row>
     <row r="90" spans="2:43">
       <c r="B90" s="52"/>
@@ -27316,66 +27330,66 @@
       <c r="G100" s="66"/>
       <c r="H100" s="66"/>
       <c r="I100" s="17"/>
-      <c r="J100" s="205" t="s">
+      <c r="J100" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K100" s="200"/>
-      <c r="L100" s="198" t="s">
+      <c r="K100" s="209"/>
+      <c r="L100" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M100" s="198"/>
-      <c r="N100" s="198" t="s">
+      <c r="M100" s="207"/>
+      <c r="N100" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O100" s="198"/>
-      <c r="P100" s="198" t="s">
+      <c r="O100" s="207"/>
+      <c r="P100" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q100" s="198"/>
-      <c r="R100" s="198" t="s">
+      <c r="Q100" s="207"/>
+      <c r="R100" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S100" s="198"/>
-      <c r="T100" s="198" t="s">
+      <c r="S100" s="207"/>
+      <c r="T100" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U100" s="198"/>
-      <c r="V100" s="198" t="s">
+      <c r="U100" s="207"/>
+      <c r="V100" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W100" s="198"/>
-      <c r="X100" s="198" t="s">
+      <c r="W100" s="207"/>
+      <c r="X100" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y100" s="198"/>
-      <c r="Z100" s="200" t="s">
+      <c r="Y100" s="207"/>
+      <c r="Z100" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA100" s="198"/>
-      <c r="AB100" s="198" t="s">
+      <c r="AA100" s="207"/>
+      <c r="AB100" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC100" s="204"/>
-      <c r="AD100" s="198" t="s">
+      <c r="AC100" s="213"/>
+      <c r="AD100" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE100" s="198"/>
-      <c r="AF100" s="198"/>
-      <c r="AG100" s="200" t="s">
+      <c r="AE100" s="207"/>
+      <c r="AF100" s="207"/>
+      <c r="AG100" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH100" s="200"/>
-      <c r="AI100" s="200"/>
-      <c r="AJ100" s="198" t="s">
+      <c r="AH100" s="209"/>
+      <c r="AI100" s="209"/>
+      <c r="AJ100" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK100" s="198"/>
-      <c r="AL100" s="198"/>
-      <c r="AM100" s="200" t="s">
+      <c r="AK100" s="207"/>
+      <c r="AL100" s="207"/>
+      <c r="AM100" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN100" s="200"/>
-      <c r="AO100" s="202"/>
+      <c r="AN100" s="209"/>
+      <c r="AO100" s="211"/>
       <c r="AQ100" s="16">
         <f>EDATE(E101,1)</f>
         <v>31</v>
@@ -27412,18 +27426,18 @@
       <c r="AA101" s="69"/>
       <c r="AB101" s="68"/>
       <c r="AC101" s="69"/>
-      <c r="AD101" s="199"/>
-      <c r="AE101" s="199"/>
-      <c r="AF101" s="199"/>
-      <c r="AG101" s="201"/>
-      <c r="AH101" s="201"/>
-      <c r="AI101" s="201"/>
-      <c r="AJ101" s="199"/>
-      <c r="AK101" s="199"/>
-      <c r="AL101" s="199"/>
-      <c r="AM101" s="201"/>
-      <c r="AN101" s="201"/>
-      <c r="AO101" s="203"/>
+      <c r="AD101" s="208"/>
+      <c r="AE101" s="208"/>
+      <c r="AF101" s="208"/>
+      <c r="AG101" s="210"/>
+      <c r="AH101" s="210"/>
+      <c r="AI101" s="210"/>
+      <c r="AJ101" s="208"/>
+      <c r="AK101" s="208"/>
+      <c r="AL101" s="208"/>
+      <c r="AM101" s="210"/>
+      <c r="AN101" s="210"/>
+      <c r="AO101" s="212"/>
       <c r="AQ101" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -27441,28 +27455,28 @@
       <c r="G102" s="71"/>
       <c r="H102" s="71"/>
       <c r="I102" s="72"/>
-      <c r="J102" s="197" t="s">
+      <c r="J102" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K102" s="196"/>
+      <c r="K102" s="205"/>
       <c r="L102" s="31"/>
       <c r="M102" s="31"/>
       <c r="N102" s="31"/>
       <c r="O102" s="31"/>
       <c r="P102" s="31"/>
       <c r="Q102" s="31"/>
-      <c r="R102" s="196" t="s">
+      <c r="R102" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S102" s="196"/>
+      <c r="S102" s="205"/>
       <c r="T102" s="31"/>
       <c r="U102" s="31"/>
       <c r="V102" s="31"/>
       <c r="W102" s="31"/>
-      <c r="X102" s="196" t="s">
+      <c r="X102" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y102" s="196"/>
+      <c r="Y102" s="205"/>
       <c r="Z102" s="31"/>
       <c r="AA102" s="31"/>
       <c r="AB102" s="31"/>
@@ -28026,18 +28040,18 @@
       <c r="AA115" s="31"/>
       <c r="AB115" s="31"/>
       <c r="AC115" s="32"/>
-      <c r="AD115" s="206"/>
-      <c r="AE115" s="206"/>
-      <c r="AF115" s="206"/>
+      <c r="AD115" s="215"/>
+      <c r="AE115" s="215"/>
+      <c r="AF115" s="215"/>
       <c r="AG115" s="26"/>
       <c r="AH115" s="26"/>
       <c r="AI115" s="26"/>
-      <c r="AJ115" s="206"/>
-      <c r="AK115" s="206"/>
-      <c r="AL115" s="206"/>
-      <c r="AM115" s="206"/>
-      <c r="AN115" s="206"/>
-      <c r="AO115" s="207"/>
+      <c r="AJ115" s="215"/>
+      <c r="AK115" s="215"/>
+      <c r="AL115" s="215"/>
+      <c r="AM115" s="215"/>
+      <c r="AN115" s="215"/>
+      <c r="AO115" s="216"/>
     </row>
     <row r="116" spans="2:43">
       <c r="B116" s="52"/>
@@ -28434,66 +28448,66 @@
       <c r="G126" s="66"/>
       <c r="H126" s="66"/>
       <c r="I126" s="17"/>
-      <c r="J126" s="205" t="s">
+      <c r="J126" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K126" s="200"/>
-      <c r="L126" s="198" t="s">
+      <c r="K126" s="209"/>
+      <c r="L126" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M126" s="198"/>
-      <c r="N126" s="198" t="s">
+      <c r="M126" s="207"/>
+      <c r="N126" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O126" s="198"/>
-      <c r="P126" s="198" t="s">
+      <c r="O126" s="207"/>
+      <c r="P126" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q126" s="198"/>
-      <c r="R126" s="198" t="s">
+      <c r="Q126" s="207"/>
+      <c r="R126" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S126" s="198"/>
-      <c r="T126" s="198" t="s">
+      <c r="S126" s="207"/>
+      <c r="T126" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U126" s="198"/>
-      <c r="V126" s="198" t="s">
+      <c r="U126" s="207"/>
+      <c r="V126" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W126" s="198"/>
-      <c r="X126" s="198" t="s">
+      <c r="W126" s="207"/>
+      <c r="X126" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y126" s="198"/>
-      <c r="Z126" s="200" t="s">
+      <c r="Y126" s="207"/>
+      <c r="Z126" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA126" s="198"/>
-      <c r="AB126" s="198" t="s">
+      <c r="AA126" s="207"/>
+      <c r="AB126" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC126" s="204"/>
-      <c r="AD126" s="198" t="s">
+      <c r="AC126" s="213"/>
+      <c r="AD126" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE126" s="198"/>
-      <c r="AF126" s="198"/>
-      <c r="AG126" s="200" t="s">
+      <c r="AE126" s="207"/>
+      <c r="AF126" s="207"/>
+      <c r="AG126" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH126" s="200"/>
-      <c r="AI126" s="200"/>
-      <c r="AJ126" s="198" t="s">
+      <c r="AH126" s="209"/>
+      <c r="AI126" s="209"/>
+      <c r="AJ126" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK126" s="198"/>
-      <c r="AL126" s="198"/>
-      <c r="AM126" s="200" t="s">
+      <c r="AK126" s="207"/>
+      <c r="AL126" s="207"/>
+      <c r="AM126" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN126" s="200"/>
-      <c r="AO126" s="202"/>
+      <c r="AN126" s="209"/>
+      <c r="AO126" s="211"/>
       <c r="AQ126" s="16">
         <f>EDATE(E127,1)</f>
         <v>31</v>
@@ -28530,18 +28544,18 @@
       <c r="AA127" s="69"/>
       <c r="AB127" s="68"/>
       <c r="AC127" s="69"/>
-      <c r="AD127" s="199"/>
-      <c r="AE127" s="199"/>
-      <c r="AF127" s="199"/>
-      <c r="AG127" s="201"/>
-      <c r="AH127" s="201"/>
-      <c r="AI127" s="201"/>
-      <c r="AJ127" s="199"/>
-      <c r="AK127" s="199"/>
-      <c r="AL127" s="199"/>
-      <c r="AM127" s="201"/>
-      <c r="AN127" s="201"/>
-      <c r="AO127" s="203"/>
+      <c r="AD127" s="208"/>
+      <c r="AE127" s="208"/>
+      <c r="AF127" s="208"/>
+      <c r="AG127" s="210"/>
+      <c r="AH127" s="210"/>
+      <c r="AI127" s="210"/>
+      <c r="AJ127" s="208"/>
+      <c r="AK127" s="208"/>
+      <c r="AL127" s="208"/>
+      <c r="AM127" s="210"/>
+      <c r="AN127" s="210"/>
+      <c r="AO127" s="212"/>
       <c r="AQ127" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -28559,28 +28573,28 @@
       <c r="G128" s="71"/>
       <c r="H128" s="71"/>
       <c r="I128" s="72"/>
-      <c r="J128" s="197" t="s">
+      <c r="J128" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K128" s="196"/>
+      <c r="K128" s="205"/>
       <c r="L128" s="31"/>
       <c r="M128" s="31"/>
       <c r="N128" s="31"/>
       <c r="O128" s="31"/>
       <c r="P128" s="31"/>
       <c r="Q128" s="31"/>
-      <c r="R128" s="196" t="s">
+      <c r="R128" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S128" s="196"/>
+      <c r="S128" s="205"/>
       <c r="T128" s="31"/>
       <c r="U128" s="31"/>
       <c r="V128" s="31"/>
       <c r="W128" s="31"/>
-      <c r="X128" s="196" t="s">
+      <c r="X128" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y128" s="196"/>
+      <c r="Y128" s="205"/>
       <c r="Z128" s="31"/>
       <c r="AA128" s="31"/>
       <c r="AB128" s="31"/>
@@ -29144,18 +29158,18 @@
       <c r="AA141" s="31"/>
       <c r="AB141" s="31"/>
       <c r="AC141" s="32"/>
-      <c r="AD141" s="206"/>
-      <c r="AE141" s="206"/>
-      <c r="AF141" s="206"/>
+      <c r="AD141" s="215"/>
+      <c r="AE141" s="215"/>
+      <c r="AF141" s="215"/>
       <c r="AG141" s="26"/>
       <c r="AH141" s="26"/>
       <c r="AI141" s="26"/>
-      <c r="AJ141" s="206"/>
-      <c r="AK141" s="206"/>
-      <c r="AL141" s="206"/>
-      <c r="AM141" s="206"/>
-      <c r="AN141" s="206"/>
-      <c r="AO141" s="207"/>
+      <c r="AJ141" s="215"/>
+      <c r="AK141" s="215"/>
+      <c r="AL141" s="215"/>
+      <c r="AM141" s="215"/>
+      <c r="AN141" s="215"/>
+      <c r="AO141" s="216"/>
     </row>
     <row r="142" spans="2:43">
       <c r="B142" s="52"/>
@@ -29552,66 +29566,66 @@
       <c r="G152" s="66"/>
       <c r="H152" s="66"/>
       <c r="I152" s="17"/>
-      <c r="J152" s="205" t="s">
+      <c r="J152" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K152" s="200"/>
-      <c r="L152" s="198" t="s">
+      <c r="K152" s="209"/>
+      <c r="L152" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M152" s="198"/>
-      <c r="N152" s="198" t="s">
+      <c r="M152" s="207"/>
+      <c r="N152" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O152" s="198"/>
-      <c r="P152" s="198" t="s">
+      <c r="O152" s="207"/>
+      <c r="P152" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q152" s="198"/>
-      <c r="R152" s="198" t="s">
+      <c r="Q152" s="207"/>
+      <c r="R152" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S152" s="198"/>
-      <c r="T152" s="198" t="s">
+      <c r="S152" s="207"/>
+      <c r="T152" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U152" s="198"/>
-      <c r="V152" s="198" t="s">
+      <c r="U152" s="207"/>
+      <c r="V152" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W152" s="198"/>
-      <c r="X152" s="198" t="s">
+      <c r="W152" s="207"/>
+      <c r="X152" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y152" s="198"/>
-      <c r="Z152" s="200" t="s">
+      <c r="Y152" s="207"/>
+      <c r="Z152" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA152" s="198"/>
-      <c r="AB152" s="198" t="s">
+      <c r="AA152" s="207"/>
+      <c r="AB152" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC152" s="204"/>
-      <c r="AD152" s="198" t="s">
+      <c r="AC152" s="213"/>
+      <c r="AD152" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE152" s="198"/>
-      <c r="AF152" s="198"/>
-      <c r="AG152" s="200" t="s">
+      <c r="AE152" s="207"/>
+      <c r="AF152" s="207"/>
+      <c r="AG152" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH152" s="200"/>
-      <c r="AI152" s="200"/>
-      <c r="AJ152" s="198" t="s">
+      <c r="AH152" s="209"/>
+      <c r="AI152" s="209"/>
+      <c r="AJ152" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK152" s="198"/>
-      <c r="AL152" s="198"/>
-      <c r="AM152" s="200" t="s">
+      <c r="AK152" s="207"/>
+      <c r="AL152" s="207"/>
+      <c r="AM152" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN152" s="200"/>
-      <c r="AO152" s="202"/>
+      <c r="AN152" s="209"/>
+      <c r="AO152" s="211"/>
       <c r="AQ152" s="16">
         <f>EDATE(E153,1)</f>
         <v>31</v>
@@ -29648,18 +29662,18 @@
       <c r="AA153" s="69"/>
       <c r="AB153" s="68"/>
       <c r="AC153" s="69"/>
-      <c r="AD153" s="199"/>
-      <c r="AE153" s="199"/>
-      <c r="AF153" s="199"/>
-      <c r="AG153" s="201"/>
-      <c r="AH153" s="201"/>
-      <c r="AI153" s="201"/>
-      <c r="AJ153" s="199"/>
-      <c r="AK153" s="199"/>
-      <c r="AL153" s="199"/>
-      <c r="AM153" s="201"/>
-      <c r="AN153" s="201"/>
-      <c r="AO153" s="203"/>
+      <c r="AD153" s="208"/>
+      <c r="AE153" s="208"/>
+      <c r="AF153" s="208"/>
+      <c r="AG153" s="210"/>
+      <c r="AH153" s="210"/>
+      <c r="AI153" s="210"/>
+      <c r="AJ153" s="208"/>
+      <c r="AK153" s="208"/>
+      <c r="AL153" s="208"/>
+      <c r="AM153" s="210"/>
+      <c r="AN153" s="210"/>
+      <c r="AO153" s="212"/>
       <c r="AQ153" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -29677,28 +29691,28 @@
       <c r="G154" s="71"/>
       <c r="H154" s="71"/>
       <c r="I154" s="72"/>
-      <c r="J154" s="197" t="s">
+      <c r="J154" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K154" s="196"/>
+      <c r="K154" s="205"/>
       <c r="L154" s="31"/>
       <c r="M154" s="31"/>
       <c r="N154" s="31"/>
       <c r="O154" s="31"/>
       <c r="P154" s="31"/>
       <c r="Q154" s="31"/>
-      <c r="R154" s="196" t="s">
+      <c r="R154" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S154" s="196"/>
+      <c r="S154" s="205"/>
       <c r="T154" s="31"/>
       <c r="U154" s="31"/>
       <c r="V154" s="31"/>
       <c r="W154" s="31"/>
-      <c r="X154" s="196" t="s">
+      <c r="X154" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y154" s="196"/>
+      <c r="Y154" s="205"/>
       <c r="Z154" s="31"/>
       <c r="AA154" s="31"/>
       <c r="AB154" s="31"/>
@@ -30262,18 +30276,18 @@
       <c r="AA167" s="31"/>
       <c r="AB167" s="31"/>
       <c r="AC167" s="32"/>
-      <c r="AD167" s="206"/>
-      <c r="AE167" s="206"/>
-      <c r="AF167" s="206"/>
+      <c r="AD167" s="215"/>
+      <c r="AE167" s="215"/>
+      <c r="AF167" s="215"/>
       <c r="AG167" s="26"/>
       <c r="AH167" s="26"/>
       <c r="AI167" s="26"/>
-      <c r="AJ167" s="206"/>
-      <c r="AK167" s="206"/>
-      <c r="AL167" s="206"/>
-      <c r="AM167" s="206"/>
-      <c r="AN167" s="206"/>
-      <c r="AO167" s="207"/>
+      <c r="AJ167" s="215"/>
+      <c r="AK167" s="215"/>
+      <c r="AL167" s="215"/>
+      <c r="AM167" s="215"/>
+      <c r="AN167" s="215"/>
+      <c r="AO167" s="216"/>
     </row>
     <row r="168" spans="2:43">
       <c r="B168" s="52"/>
@@ -30670,66 +30684,66 @@
       <c r="G178" s="66"/>
       <c r="H178" s="66"/>
       <c r="I178" s="17"/>
-      <c r="J178" s="205" t="s">
+      <c r="J178" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K178" s="200"/>
-      <c r="L178" s="198" t="s">
+      <c r="K178" s="209"/>
+      <c r="L178" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M178" s="198"/>
-      <c r="N178" s="198" t="s">
+      <c r="M178" s="207"/>
+      <c r="N178" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O178" s="198"/>
-      <c r="P178" s="198" t="s">
+      <c r="O178" s="207"/>
+      <c r="P178" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q178" s="198"/>
-      <c r="R178" s="198" t="s">
+      <c r="Q178" s="207"/>
+      <c r="R178" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S178" s="198"/>
-      <c r="T178" s="198" t="s">
+      <c r="S178" s="207"/>
+      <c r="T178" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U178" s="198"/>
-      <c r="V178" s="198" t="s">
+      <c r="U178" s="207"/>
+      <c r="V178" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W178" s="198"/>
-      <c r="X178" s="198" t="s">
+      <c r="W178" s="207"/>
+      <c r="X178" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y178" s="198"/>
-      <c r="Z178" s="200" t="s">
+      <c r="Y178" s="207"/>
+      <c r="Z178" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA178" s="198"/>
-      <c r="AB178" s="198" t="s">
+      <c r="AA178" s="207"/>
+      <c r="AB178" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC178" s="204"/>
-      <c r="AD178" s="198" t="s">
+      <c r="AC178" s="213"/>
+      <c r="AD178" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE178" s="198"/>
-      <c r="AF178" s="198"/>
-      <c r="AG178" s="200" t="s">
+      <c r="AE178" s="207"/>
+      <c r="AF178" s="207"/>
+      <c r="AG178" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH178" s="200"/>
-      <c r="AI178" s="200"/>
-      <c r="AJ178" s="198" t="s">
+      <c r="AH178" s="209"/>
+      <c r="AI178" s="209"/>
+      <c r="AJ178" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK178" s="198"/>
-      <c r="AL178" s="198"/>
-      <c r="AM178" s="200" t="s">
+      <c r="AK178" s="207"/>
+      <c r="AL178" s="207"/>
+      <c r="AM178" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN178" s="200"/>
-      <c r="AO178" s="202"/>
+      <c r="AN178" s="209"/>
+      <c r="AO178" s="211"/>
       <c r="AQ178" s="16">
         <f>EDATE(E179,1)</f>
         <v>31</v>
@@ -30766,18 +30780,18 @@
       <c r="AA179" s="69"/>
       <c r="AB179" s="68"/>
       <c r="AC179" s="69"/>
-      <c r="AD179" s="199"/>
-      <c r="AE179" s="199"/>
-      <c r="AF179" s="199"/>
-      <c r="AG179" s="201"/>
-      <c r="AH179" s="201"/>
-      <c r="AI179" s="201"/>
-      <c r="AJ179" s="199"/>
-      <c r="AK179" s="199"/>
-      <c r="AL179" s="199"/>
-      <c r="AM179" s="201"/>
-      <c r="AN179" s="201"/>
-      <c r="AO179" s="203"/>
+      <c r="AD179" s="208"/>
+      <c r="AE179" s="208"/>
+      <c r="AF179" s="208"/>
+      <c r="AG179" s="210"/>
+      <c r="AH179" s="210"/>
+      <c r="AI179" s="210"/>
+      <c r="AJ179" s="208"/>
+      <c r="AK179" s="208"/>
+      <c r="AL179" s="208"/>
+      <c r="AM179" s="210"/>
+      <c r="AN179" s="210"/>
+      <c r="AO179" s="212"/>
       <c r="AQ179" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -30795,28 +30809,28 @@
       <c r="G180" s="71"/>
       <c r="H180" s="71"/>
       <c r="I180" s="72"/>
-      <c r="J180" s="197" t="s">
+      <c r="J180" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K180" s="196"/>
+      <c r="K180" s="205"/>
       <c r="L180" s="31"/>
       <c r="M180" s="31"/>
       <c r="N180" s="31"/>
       <c r="O180" s="31"/>
       <c r="P180" s="31"/>
       <c r="Q180" s="31"/>
-      <c r="R180" s="196" t="s">
+      <c r="R180" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S180" s="196"/>
+      <c r="S180" s="205"/>
       <c r="T180" s="31"/>
       <c r="U180" s="31"/>
       <c r="V180" s="31"/>
       <c r="W180" s="31"/>
-      <c r="X180" s="196" t="s">
+      <c r="X180" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y180" s="196"/>
+      <c r="Y180" s="205"/>
       <c r="Z180" s="31"/>
       <c r="AA180" s="31"/>
       <c r="AB180" s="31"/>
@@ -31380,18 +31394,18 @@
       <c r="AA193" s="31"/>
       <c r="AB193" s="31"/>
       <c r="AC193" s="32"/>
-      <c r="AD193" s="206"/>
-      <c r="AE193" s="206"/>
-      <c r="AF193" s="206"/>
+      <c r="AD193" s="215"/>
+      <c r="AE193" s="215"/>
+      <c r="AF193" s="215"/>
       <c r="AG193" s="26"/>
       <c r="AH193" s="26"/>
       <c r="AI193" s="26"/>
-      <c r="AJ193" s="206"/>
-      <c r="AK193" s="206"/>
-      <c r="AL193" s="206"/>
-      <c r="AM193" s="206"/>
-      <c r="AN193" s="206"/>
-      <c r="AO193" s="207"/>
+      <c r="AJ193" s="215"/>
+      <c r="AK193" s="215"/>
+      <c r="AL193" s="215"/>
+      <c r="AM193" s="215"/>
+      <c r="AN193" s="215"/>
+      <c r="AO193" s="216"/>
     </row>
     <row r="194" spans="2:43">
       <c r="B194" s="52"/>
@@ -31788,66 +31802,66 @@
       <c r="G204" s="66"/>
       <c r="H204" s="66"/>
       <c r="I204" s="17"/>
-      <c r="J204" s="205" t="s">
+      <c r="J204" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K204" s="200"/>
-      <c r="L204" s="198" t="s">
+      <c r="K204" s="209"/>
+      <c r="L204" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M204" s="198"/>
-      <c r="N204" s="198" t="s">
+      <c r="M204" s="207"/>
+      <c r="N204" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O204" s="198"/>
-      <c r="P204" s="198" t="s">
+      <c r="O204" s="207"/>
+      <c r="P204" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q204" s="198"/>
-      <c r="R204" s="198" t="s">
+      <c r="Q204" s="207"/>
+      <c r="R204" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S204" s="198"/>
-      <c r="T204" s="198" t="s">
+      <c r="S204" s="207"/>
+      <c r="T204" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U204" s="198"/>
-      <c r="V204" s="198" t="s">
+      <c r="U204" s="207"/>
+      <c r="V204" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W204" s="198"/>
-      <c r="X204" s="198" t="s">
+      <c r="W204" s="207"/>
+      <c r="X204" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y204" s="198"/>
-      <c r="Z204" s="200" t="s">
+      <c r="Y204" s="207"/>
+      <c r="Z204" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA204" s="198"/>
-      <c r="AB204" s="198" t="s">
+      <c r="AA204" s="207"/>
+      <c r="AB204" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC204" s="204"/>
-      <c r="AD204" s="198" t="s">
+      <c r="AC204" s="213"/>
+      <c r="AD204" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE204" s="198"/>
-      <c r="AF204" s="198"/>
-      <c r="AG204" s="200" t="s">
+      <c r="AE204" s="207"/>
+      <c r="AF204" s="207"/>
+      <c r="AG204" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH204" s="200"/>
-      <c r="AI204" s="200"/>
-      <c r="AJ204" s="198" t="s">
+      <c r="AH204" s="209"/>
+      <c r="AI204" s="209"/>
+      <c r="AJ204" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK204" s="198"/>
-      <c r="AL204" s="198"/>
-      <c r="AM204" s="200" t="s">
+      <c r="AK204" s="207"/>
+      <c r="AL204" s="207"/>
+      <c r="AM204" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN204" s="200"/>
-      <c r="AO204" s="202"/>
+      <c r="AN204" s="209"/>
+      <c r="AO204" s="211"/>
       <c r="AQ204" s="16">
         <f>EDATE(E205,1)</f>
         <v>31</v>
@@ -31884,18 +31898,18 @@
       <c r="AA205" s="69"/>
       <c r="AB205" s="68"/>
       <c r="AC205" s="69"/>
-      <c r="AD205" s="199"/>
-      <c r="AE205" s="199"/>
-      <c r="AF205" s="199"/>
-      <c r="AG205" s="201"/>
-      <c r="AH205" s="201"/>
-      <c r="AI205" s="201"/>
-      <c r="AJ205" s="199"/>
-      <c r="AK205" s="199"/>
-      <c r="AL205" s="199"/>
-      <c r="AM205" s="201"/>
-      <c r="AN205" s="201"/>
-      <c r="AO205" s="203"/>
+      <c r="AD205" s="208"/>
+      <c r="AE205" s="208"/>
+      <c r="AF205" s="208"/>
+      <c r="AG205" s="210"/>
+      <c r="AH205" s="210"/>
+      <c r="AI205" s="210"/>
+      <c r="AJ205" s="208"/>
+      <c r="AK205" s="208"/>
+      <c r="AL205" s="208"/>
+      <c r="AM205" s="210"/>
+      <c r="AN205" s="210"/>
+      <c r="AO205" s="212"/>
       <c r="AQ205" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -31913,28 +31927,28 @@
       <c r="G206" s="71"/>
       <c r="H206" s="71"/>
       <c r="I206" s="72"/>
-      <c r="J206" s="197" t="s">
+      <c r="J206" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K206" s="196"/>
+      <c r="K206" s="205"/>
       <c r="L206" s="31"/>
       <c r="M206" s="31"/>
       <c r="N206" s="31"/>
       <c r="O206" s="31"/>
       <c r="P206" s="31"/>
       <c r="Q206" s="31"/>
-      <c r="R206" s="196" t="s">
+      <c r="R206" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S206" s="196"/>
+      <c r="S206" s="205"/>
       <c r="T206" s="31"/>
       <c r="U206" s="31"/>
       <c r="V206" s="31"/>
       <c r="W206" s="31"/>
-      <c r="X206" s="196" t="s">
+      <c r="X206" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y206" s="196"/>
+      <c r="Y206" s="205"/>
       <c r="Z206" s="31"/>
       <c r="AA206" s="31"/>
       <c r="AB206" s="31"/>
@@ -32498,18 +32512,18 @@
       <c r="AA219" s="31"/>
       <c r="AB219" s="31"/>
       <c r="AC219" s="32"/>
-      <c r="AD219" s="206"/>
-      <c r="AE219" s="206"/>
-      <c r="AF219" s="206"/>
+      <c r="AD219" s="215"/>
+      <c r="AE219" s="215"/>
+      <c r="AF219" s="215"/>
       <c r="AG219" s="26"/>
       <c r="AH219" s="26"/>
       <c r="AI219" s="26"/>
-      <c r="AJ219" s="206"/>
-      <c r="AK219" s="206"/>
-      <c r="AL219" s="206"/>
-      <c r="AM219" s="206"/>
-      <c r="AN219" s="206"/>
-      <c r="AO219" s="207"/>
+      <c r="AJ219" s="215"/>
+      <c r="AK219" s="215"/>
+      <c r="AL219" s="215"/>
+      <c r="AM219" s="215"/>
+      <c r="AN219" s="215"/>
+      <c r="AO219" s="216"/>
     </row>
     <row r="220" spans="2:43">
       <c r="B220" s="52"/>
@@ -32906,66 +32920,66 @@
       <c r="G230" s="66"/>
       <c r="H230" s="66"/>
       <c r="I230" s="17"/>
-      <c r="J230" s="205" t="s">
+      <c r="J230" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K230" s="200"/>
-      <c r="L230" s="198" t="s">
+      <c r="K230" s="209"/>
+      <c r="L230" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M230" s="198"/>
-      <c r="N230" s="198" t="s">
+      <c r="M230" s="207"/>
+      <c r="N230" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O230" s="198"/>
-      <c r="P230" s="198" t="s">
+      <c r="O230" s="207"/>
+      <c r="P230" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q230" s="198"/>
-      <c r="R230" s="198" t="s">
+      <c r="Q230" s="207"/>
+      <c r="R230" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S230" s="198"/>
-      <c r="T230" s="198" t="s">
+      <c r="S230" s="207"/>
+      <c r="T230" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U230" s="198"/>
-      <c r="V230" s="198" t="s">
+      <c r="U230" s="207"/>
+      <c r="V230" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W230" s="198"/>
-      <c r="X230" s="198" t="s">
+      <c r="W230" s="207"/>
+      <c r="X230" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y230" s="198"/>
-      <c r="Z230" s="200" t="s">
+      <c r="Y230" s="207"/>
+      <c r="Z230" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA230" s="198"/>
-      <c r="AB230" s="198" t="s">
+      <c r="AA230" s="207"/>
+      <c r="AB230" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC230" s="204"/>
-      <c r="AD230" s="198" t="s">
+      <c r="AC230" s="213"/>
+      <c r="AD230" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE230" s="198"/>
-      <c r="AF230" s="198"/>
-      <c r="AG230" s="200" t="s">
+      <c r="AE230" s="207"/>
+      <c r="AF230" s="207"/>
+      <c r="AG230" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH230" s="200"/>
-      <c r="AI230" s="200"/>
-      <c r="AJ230" s="198" t="s">
+      <c r="AH230" s="209"/>
+      <c r="AI230" s="209"/>
+      <c r="AJ230" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK230" s="198"/>
-      <c r="AL230" s="198"/>
-      <c r="AM230" s="200" t="s">
+      <c r="AK230" s="207"/>
+      <c r="AL230" s="207"/>
+      <c r="AM230" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN230" s="200"/>
-      <c r="AO230" s="202"/>
+      <c r="AN230" s="209"/>
+      <c r="AO230" s="211"/>
       <c r="AQ230" s="16">
         <f>EDATE(E231,1)</f>
         <v>31</v>
@@ -33002,18 +33016,18 @@
       <c r="AA231" s="69"/>
       <c r="AB231" s="68"/>
       <c r="AC231" s="69"/>
-      <c r="AD231" s="199"/>
-      <c r="AE231" s="199"/>
-      <c r="AF231" s="199"/>
-      <c r="AG231" s="201"/>
-      <c r="AH231" s="201"/>
-      <c r="AI231" s="201"/>
-      <c r="AJ231" s="199"/>
-      <c r="AK231" s="199"/>
-      <c r="AL231" s="199"/>
-      <c r="AM231" s="201"/>
-      <c r="AN231" s="201"/>
-      <c r="AO231" s="203"/>
+      <c r="AD231" s="208"/>
+      <c r="AE231" s="208"/>
+      <c r="AF231" s="208"/>
+      <c r="AG231" s="210"/>
+      <c r="AH231" s="210"/>
+      <c r="AI231" s="210"/>
+      <c r="AJ231" s="208"/>
+      <c r="AK231" s="208"/>
+      <c r="AL231" s="208"/>
+      <c r="AM231" s="210"/>
+      <c r="AN231" s="210"/>
+      <c r="AO231" s="212"/>
       <c r="AQ231" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -33031,28 +33045,28 @@
       <c r="G232" s="71"/>
       <c r="H232" s="71"/>
       <c r="I232" s="72"/>
-      <c r="J232" s="197" t="s">
+      <c r="J232" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K232" s="196"/>
+      <c r="K232" s="205"/>
       <c r="L232" s="31"/>
       <c r="M232" s="31"/>
       <c r="N232" s="31"/>
       <c r="O232" s="31"/>
       <c r="P232" s="31"/>
       <c r="Q232" s="31"/>
-      <c r="R232" s="196" t="s">
+      <c r="R232" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S232" s="196"/>
+      <c r="S232" s="205"/>
       <c r="T232" s="31"/>
       <c r="U232" s="31"/>
       <c r="V232" s="31"/>
       <c r="W232" s="31"/>
-      <c r="X232" s="196" t="s">
+      <c r="X232" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y232" s="196"/>
+      <c r="Y232" s="205"/>
       <c r="Z232" s="31"/>
       <c r="AA232" s="31"/>
       <c r="AB232" s="31"/>
@@ -33616,18 +33630,18 @@
       <c r="AA245" s="31"/>
       <c r="AB245" s="31"/>
       <c r="AC245" s="32"/>
-      <c r="AD245" s="206"/>
-      <c r="AE245" s="206"/>
-      <c r="AF245" s="206"/>
+      <c r="AD245" s="215"/>
+      <c r="AE245" s="215"/>
+      <c r="AF245" s="215"/>
       <c r="AG245" s="26"/>
       <c r="AH245" s="26"/>
       <c r="AI245" s="26"/>
-      <c r="AJ245" s="206"/>
-      <c r="AK245" s="206"/>
-      <c r="AL245" s="206"/>
-      <c r="AM245" s="206"/>
-      <c r="AN245" s="206"/>
-      <c r="AO245" s="207"/>
+      <c r="AJ245" s="215"/>
+      <c r="AK245" s="215"/>
+      <c r="AL245" s="215"/>
+      <c r="AM245" s="215"/>
+      <c r="AN245" s="215"/>
+      <c r="AO245" s="216"/>
     </row>
     <row r="246" spans="2:43">
       <c r="B246" s="52"/>
@@ -34024,66 +34038,66 @@
       <c r="G256" s="66"/>
       <c r="H256" s="66"/>
       <c r="I256" s="17"/>
-      <c r="J256" s="205" t="s">
+      <c r="J256" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K256" s="200"/>
-      <c r="L256" s="198" t="s">
+      <c r="K256" s="209"/>
+      <c r="L256" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M256" s="198"/>
-      <c r="N256" s="198" t="s">
+      <c r="M256" s="207"/>
+      <c r="N256" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O256" s="198"/>
-      <c r="P256" s="198" t="s">
+      <c r="O256" s="207"/>
+      <c r="P256" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q256" s="198"/>
-      <c r="R256" s="198" t="s">
+      <c r="Q256" s="207"/>
+      <c r="R256" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S256" s="198"/>
-      <c r="T256" s="198" t="s">
+      <c r="S256" s="207"/>
+      <c r="T256" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U256" s="198"/>
-      <c r="V256" s="198" t="s">
+      <c r="U256" s="207"/>
+      <c r="V256" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W256" s="198"/>
-      <c r="X256" s="198" t="s">
+      <c r="W256" s="207"/>
+      <c r="X256" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y256" s="198"/>
-      <c r="Z256" s="200" t="s">
+      <c r="Y256" s="207"/>
+      <c r="Z256" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA256" s="198"/>
-      <c r="AB256" s="198" t="s">
+      <c r="AA256" s="207"/>
+      <c r="AB256" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC256" s="204"/>
-      <c r="AD256" s="198" t="s">
+      <c r="AC256" s="213"/>
+      <c r="AD256" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE256" s="198"/>
-      <c r="AF256" s="198"/>
-      <c r="AG256" s="200" t="s">
+      <c r="AE256" s="207"/>
+      <c r="AF256" s="207"/>
+      <c r="AG256" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH256" s="200"/>
-      <c r="AI256" s="200"/>
-      <c r="AJ256" s="198" t="s">
+      <c r="AH256" s="209"/>
+      <c r="AI256" s="209"/>
+      <c r="AJ256" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK256" s="198"/>
-      <c r="AL256" s="198"/>
-      <c r="AM256" s="200" t="s">
+      <c r="AK256" s="207"/>
+      <c r="AL256" s="207"/>
+      <c r="AM256" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN256" s="200"/>
-      <c r="AO256" s="202"/>
+      <c r="AN256" s="209"/>
+      <c r="AO256" s="211"/>
       <c r="AQ256" s="16">
         <f>EDATE(E257,1)</f>
         <v>31</v>
@@ -34120,18 +34134,18 @@
       <c r="AA257" s="69"/>
       <c r="AB257" s="68"/>
       <c r="AC257" s="69"/>
-      <c r="AD257" s="199"/>
-      <c r="AE257" s="199"/>
-      <c r="AF257" s="199"/>
-      <c r="AG257" s="201"/>
-      <c r="AH257" s="201"/>
-      <c r="AI257" s="201"/>
-      <c r="AJ257" s="199"/>
-      <c r="AK257" s="199"/>
-      <c r="AL257" s="199"/>
-      <c r="AM257" s="201"/>
-      <c r="AN257" s="201"/>
-      <c r="AO257" s="203"/>
+      <c r="AD257" s="208"/>
+      <c r="AE257" s="208"/>
+      <c r="AF257" s="208"/>
+      <c r="AG257" s="210"/>
+      <c r="AH257" s="210"/>
+      <c r="AI257" s="210"/>
+      <c r="AJ257" s="208"/>
+      <c r="AK257" s="208"/>
+      <c r="AL257" s="208"/>
+      <c r="AM257" s="210"/>
+      <c r="AN257" s="210"/>
+      <c r="AO257" s="212"/>
       <c r="AQ257" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -34149,28 +34163,28 @@
       <c r="G258" s="71"/>
       <c r="H258" s="71"/>
       <c r="I258" s="72"/>
-      <c r="J258" s="197" t="s">
+      <c r="J258" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K258" s="196"/>
+      <c r="K258" s="205"/>
       <c r="L258" s="31"/>
       <c r="M258" s="31"/>
       <c r="N258" s="31"/>
       <c r="O258" s="31"/>
       <c r="P258" s="31"/>
       <c r="Q258" s="31"/>
-      <c r="R258" s="196" t="s">
+      <c r="R258" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S258" s="196"/>
+      <c r="S258" s="205"/>
       <c r="T258" s="31"/>
       <c r="U258" s="31"/>
       <c r="V258" s="31"/>
       <c r="W258" s="31"/>
-      <c r="X258" s="196" t="s">
+      <c r="X258" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y258" s="196"/>
+      <c r="Y258" s="205"/>
       <c r="Z258" s="31"/>
       <c r="AA258" s="31"/>
       <c r="AB258" s="31"/>
@@ -34734,18 +34748,18 @@
       <c r="AA271" s="31"/>
       <c r="AB271" s="31"/>
       <c r="AC271" s="32"/>
-      <c r="AD271" s="206"/>
-      <c r="AE271" s="206"/>
-      <c r="AF271" s="206"/>
+      <c r="AD271" s="215"/>
+      <c r="AE271" s="215"/>
+      <c r="AF271" s="215"/>
       <c r="AG271" s="26"/>
       <c r="AH271" s="26"/>
       <c r="AI271" s="26"/>
-      <c r="AJ271" s="206"/>
-      <c r="AK271" s="206"/>
-      <c r="AL271" s="206"/>
-      <c r="AM271" s="206"/>
-      <c r="AN271" s="206"/>
-      <c r="AO271" s="207"/>
+      <c r="AJ271" s="215"/>
+      <c r="AK271" s="215"/>
+      <c r="AL271" s="215"/>
+      <c r="AM271" s="215"/>
+      <c r="AN271" s="215"/>
+      <c r="AO271" s="216"/>
     </row>
     <row r="272" spans="2:43">
       <c r="B272" s="52"/>
@@ -35142,66 +35156,66 @@
       <c r="G282" s="66"/>
       <c r="H282" s="66"/>
       <c r="I282" s="17"/>
-      <c r="J282" s="205" t="s">
+      <c r="J282" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K282" s="200"/>
-      <c r="L282" s="198" t="s">
+      <c r="K282" s="209"/>
+      <c r="L282" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M282" s="198"/>
-      <c r="N282" s="198" t="s">
+      <c r="M282" s="207"/>
+      <c r="N282" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O282" s="198"/>
-      <c r="P282" s="198" t="s">
+      <c r="O282" s="207"/>
+      <c r="P282" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q282" s="198"/>
-      <c r="R282" s="198" t="s">
+      <c r="Q282" s="207"/>
+      <c r="R282" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S282" s="198"/>
-      <c r="T282" s="198" t="s">
+      <c r="S282" s="207"/>
+      <c r="T282" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U282" s="198"/>
-      <c r="V282" s="198" t="s">
+      <c r="U282" s="207"/>
+      <c r="V282" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W282" s="198"/>
-      <c r="X282" s="198" t="s">
+      <c r="W282" s="207"/>
+      <c r="X282" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y282" s="198"/>
-      <c r="Z282" s="200" t="s">
+      <c r="Y282" s="207"/>
+      <c r="Z282" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA282" s="198"/>
-      <c r="AB282" s="198" t="s">
+      <c r="AA282" s="207"/>
+      <c r="AB282" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC282" s="204"/>
-      <c r="AD282" s="198" t="s">
+      <c r="AC282" s="213"/>
+      <c r="AD282" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE282" s="198"/>
-      <c r="AF282" s="198"/>
-      <c r="AG282" s="200" t="s">
+      <c r="AE282" s="207"/>
+      <c r="AF282" s="207"/>
+      <c r="AG282" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH282" s="200"/>
-      <c r="AI282" s="200"/>
-      <c r="AJ282" s="198" t="s">
+      <c r="AH282" s="209"/>
+      <c r="AI282" s="209"/>
+      <c r="AJ282" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK282" s="198"/>
-      <c r="AL282" s="198"/>
-      <c r="AM282" s="200" t="s">
+      <c r="AK282" s="207"/>
+      <c r="AL282" s="207"/>
+      <c r="AM282" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN282" s="200"/>
-      <c r="AO282" s="202"/>
+      <c r="AN282" s="209"/>
+      <c r="AO282" s="211"/>
       <c r="AQ282" s="16">
         <f>EDATE(E283,1)</f>
         <v>31</v>
@@ -35238,18 +35252,18 @@
       <c r="AA283" s="69"/>
       <c r="AB283" s="68"/>
       <c r="AC283" s="69"/>
-      <c r="AD283" s="199"/>
-      <c r="AE283" s="199"/>
-      <c r="AF283" s="199"/>
-      <c r="AG283" s="201"/>
-      <c r="AH283" s="201"/>
-      <c r="AI283" s="201"/>
-      <c r="AJ283" s="199"/>
-      <c r="AK283" s="199"/>
-      <c r="AL283" s="199"/>
-      <c r="AM283" s="201"/>
-      <c r="AN283" s="201"/>
-      <c r="AO283" s="203"/>
+      <c r="AD283" s="208"/>
+      <c r="AE283" s="208"/>
+      <c r="AF283" s="208"/>
+      <c r="AG283" s="210"/>
+      <c r="AH283" s="210"/>
+      <c r="AI283" s="210"/>
+      <c r="AJ283" s="208"/>
+      <c r="AK283" s="208"/>
+      <c r="AL283" s="208"/>
+      <c r="AM283" s="210"/>
+      <c r="AN283" s="210"/>
+      <c r="AO283" s="212"/>
       <c r="AQ283" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -35267,28 +35281,28 @@
       <c r="G284" s="71"/>
       <c r="H284" s="71"/>
       <c r="I284" s="72"/>
-      <c r="J284" s="197" t="s">
+      <c r="J284" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K284" s="196"/>
+      <c r="K284" s="205"/>
       <c r="L284" s="31"/>
       <c r="M284" s="31"/>
       <c r="N284" s="31"/>
       <c r="O284" s="31"/>
       <c r="P284" s="31"/>
       <c r="Q284" s="31"/>
-      <c r="R284" s="196" t="s">
+      <c r="R284" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S284" s="196"/>
+      <c r="S284" s="205"/>
       <c r="T284" s="31"/>
       <c r="U284" s="31"/>
       <c r="V284" s="31"/>
       <c r="W284" s="31"/>
-      <c r="X284" s="196" t="s">
+      <c r="X284" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y284" s="196"/>
+      <c r="Y284" s="205"/>
       <c r="Z284" s="31"/>
       <c r="AA284" s="31"/>
       <c r="AB284" s="31"/>
@@ -35852,18 +35866,18 @@
       <c r="AA297" s="31"/>
       <c r="AB297" s="31"/>
       <c r="AC297" s="32"/>
-      <c r="AD297" s="206"/>
-      <c r="AE297" s="206"/>
-      <c r="AF297" s="206"/>
+      <c r="AD297" s="215"/>
+      <c r="AE297" s="215"/>
+      <c r="AF297" s="215"/>
       <c r="AG297" s="26"/>
       <c r="AH297" s="26"/>
       <c r="AI297" s="26"/>
-      <c r="AJ297" s="206"/>
-      <c r="AK297" s="206"/>
-      <c r="AL297" s="206"/>
-      <c r="AM297" s="206"/>
-      <c r="AN297" s="206"/>
-      <c r="AO297" s="207"/>
+      <c r="AJ297" s="215"/>
+      <c r="AK297" s="215"/>
+      <c r="AL297" s="215"/>
+      <c r="AM297" s="215"/>
+      <c r="AN297" s="215"/>
+      <c r="AO297" s="216"/>
     </row>
     <row r="298" spans="2:43">
       <c r="B298" s="52"/>
@@ -36260,66 +36274,66 @@
       <c r="G308" s="66"/>
       <c r="H308" s="66"/>
       <c r="I308" s="17"/>
-      <c r="J308" s="205" t="s">
+      <c r="J308" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K308" s="200"/>
-      <c r="L308" s="198" t="s">
+      <c r="K308" s="209"/>
+      <c r="L308" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M308" s="198"/>
-      <c r="N308" s="198" t="s">
+      <c r="M308" s="207"/>
+      <c r="N308" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O308" s="198"/>
-      <c r="P308" s="198" t="s">
+      <c r="O308" s="207"/>
+      <c r="P308" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q308" s="198"/>
-      <c r="R308" s="198" t="s">
+      <c r="Q308" s="207"/>
+      <c r="R308" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S308" s="198"/>
-      <c r="T308" s="198" t="s">
+      <c r="S308" s="207"/>
+      <c r="T308" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U308" s="198"/>
-      <c r="V308" s="198" t="s">
+      <c r="U308" s="207"/>
+      <c r="V308" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W308" s="198"/>
-      <c r="X308" s="198" t="s">
+      <c r="W308" s="207"/>
+      <c r="X308" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y308" s="198"/>
-      <c r="Z308" s="200" t="s">
+      <c r="Y308" s="207"/>
+      <c r="Z308" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA308" s="198"/>
-      <c r="AB308" s="198" t="s">
+      <c r="AA308" s="207"/>
+      <c r="AB308" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC308" s="204"/>
-      <c r="AD308" s="198" t="s">
+      <c r="AC308" s="213"/>
+      <c r="AD308" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE308" s="198"/>
-      <c r="AF308" s="198"/>
-      <c r="AG308" s="200" t="s">
+      <c r="AE308" s="207"/>
+      <c r="AF308" s="207"/>
+      <c r="AG308" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH308" s="200"/>
-      <c r="AI308" s="200"/>
-      <c r="AJ308" s="198" t="s">
+      <c r="AH308" s="209"/>
+      <c r="AI308" s="209"/>
+      <c r="AJ308" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK308" s="198"/>
-      <c r="AL308" s="198"/>
-      <c r="AM308" s="200" t="s">
+      <c r="AK308" s="207"/>
+      <c r="AL308" s="207"/>
+      <c r="AM308" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN308" s="200"/>
-      <c r="AO308" s="202"/>
+      <c r="AN308" s="209"/>
+      <c r="AO308" s="211"/>
       <c r="AQ308" s="16">
         <f>EDATE(E309,1)</f>
         <v>31</v>
@@ -36356,18 +36370,18 @@
       <c r="AA309" s="69"/>
       <c r="AB309" s="68"/>
       <c r="AC309" s="69"/>
-      <c r="AD309" s="199"/>
-      <c r="AE309" s="199"/>
-      <c r="AF309" s="199"/>
-      <c r="AG309" s="201"/>
-      <c r="AH309" s="201"/>
-      <c r="AI309" s="201"/>
-      <c r="AJ309" s="199"/>
-      <c r="AK309" s="199"/>
-      <c r="AL309" s="199"/>
-      <c r="AM309" s="201"/>
-      <c r="AN309" s="201"/>
-      <c r="AO309" s="203"/>
+      <c r="AD309" s="208"/>
+      <c r="AE309" s="208"/>
+      <c r="AF309" s="208"/>
+      <c r="AG309" s="210"/>
+      <c r="AH309" s="210"/>
+      <c r="AI309" s="210"/>
+      <c r="AJ309" s="208"/>
+      <c r="AK309" s="208"/>
+      <c r="AL309" s="208"/>
+      <c r="AM309" s="210"/>
+      <c r="AN309" s="210"/>
+      <c r="AO309" s="212"/>
       <c r="AQ309" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -36385,28 +36399,28 @@
       <c r="G310" s="71"/>
       <c r="H310" s="71"/>
       <c r="I310" s="72"/>
-      <c r="J310" s="197" t="s">
+      <c r="J310" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K310" s="196"/>
+      <c r="K310" s="205"/>
       <c r="L310" s="31"/>
       <c r="M310" s="31"/>
       <c r="N310" s="31"/>
       <c r="O310" s="31"/>
       <c r="P310" s="31"/>
       <c r="Q310" s="31"/>
-      <c r="R310" s="196" t="s">
+      <c r="R310" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S310" s="196"/>
+      <c r="S310" s="205"/>
       <c r="T310" s="31"/>
       <c r="U310" s="31"/>
       <c r="V310" s="31"/>
       <c r="W310" s="31"/>
-      <c r="X310" s="196" t="s">
+      <c r="X310" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y310" s="196"/>
+      <c r="Y310" s="205"/>
       <c r="Z310" s="31"/>
       <c r="AA310" s="31"/>
       <c r="AB310" s="31"/>
@@ -36970,18 +36984,18 @@
       <c r="AA323" s="31"/>
       <c r="AB323" s="31"/>
       <c r="AC323" s="32"/>
-      <c r="AD323" s="206"/>
-      <c r="AE323" s="206"/>
-      <c r="AF323" s="206"/>
+      <c r="AD323" s="215"/>
+      <c r="AE323" s="215"/>
+      <c r="AF323" s="215"/>
       <c r="AG323" s="26"/>
       <c r="AH323" s="26"/>
       <c r="AI323" s="26"/>
-      <c r="AJ323" s="206"/>
-      <c r="AK323" s="206"/>
-      <c r="AL323" s="206"/>
-      <c r="AM323" s="206"/>
-      <c r="AN323" s="206"/>
-      <c r="AO323" s="207"/>
+      <c r="AJ323" s="215"/>
+      <c r="AK323" s="215"/>
+      <c r="AL323" s="215"/>
+      <c r="AM323" s="215"/>
+      <c r="AN323" s="215"/>
+      <c r="AO323" s="216"/>
     </row>
     <row r="324" spans="2:43">
       <c r="B324" s="52"/>
@@ -37378,66 +37392,66 @@
       <c r="G334" s="66"/>
       <c r="H334" s="66"/>
       <c r="I334" s="17"/>
-      <c r="J334" s="205" t="s">
+      <c r="J334" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K334" s="200"/>
-      <c r="L334" s="198" t="s">
+      <c r="K334" s="209"/>
+      <c r="L334" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M334" s="198"/>
-      <c r="N334" s="198" t="s">
+      <c r="M334" s="207"/>
+      <c r="N334" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O334" s="198"/>
-      <c r="P334" s="198" t="s">
+      <c r="O334" s="207"/>
+      <c r="P334" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q334" s="198"/>
-      <c r="R334" s="198" t="s">
+      <c r="Q334" s="207"/>
+      <c r="R334" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S334" s="198"/>
-      <c r="T334" s="198" t="s">
+      <c r="S334" s="207"/>
+      <c r="T334" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U334" s="198"/>
-      <c r="V334" s="198" t="s">
+      <c r="U334" s="207"/>
+      <c r="V334" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W334" s="198"/>
-      <c r="X334" s="198" t="s">
+      <c r="W334" s="207"/>
+      <c r="X334" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y334" s="198"/>
-      <c r="Z334" s="200" t="s">
+      <c r="Y334" s="207"/>
+      <c r="Z334" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA334" s="198"/>
-      <c r="AB334" s="198" t="s">
+      <c r="AA334" s="207"/>
+      <c r="AB334" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC334" s="204"/>
-      <c r="AD334" s="198" t="s">
+      <c r="AC334" s="213"/>
+      <c r="AD334" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE334" s="198"/>
-      <c r="AF334" s="198"/>
-      <c r="AG334" s="200" t="s">
+      <c r="AE334" s="207"/>
+      <c r="AF334" s="207"/>
+      <c r="AG334" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH334" s="200"/>
-      <c r="AI334" s="200"/>
-      <c r="AJ334" s="198" t="s">
+      <c r="AH334" s="209"/>
+      <c r="AI334" s="209"/>
+      <c r="AJ334" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK334" s="198"/>
-      <c r="AL334" s="198"/>
-      <c r="AM334" s="200" t="s">
+      <c r="AK334" s="207"/>
+      <c r="AL334" s="207"/>
+      <c r="AM334" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN334" s="200"/>
-      <c r="AO334" s="202"/>
+      <c r="AN334" s="209"/>
+      <c r="AO334" s="211"/>
       <c r="AQ334" s="16">
         <f>EDATE(E335,1)</f>
         <v>31</v>
@@ -37474,18 +37488,18 @@
       <c r="AA335" s="69"/>
       <c r="AB335" s="68"/>
       <c r="AC335" s="69"/>
-      <c r="AD335" s="199"/>
-      <c r="AE335" s="199"/>
-      <c r="AF335" s="199"/>
-      <c r="AG335" s="201"/>
-      <c r="AH335" s="201"/>
-      <c r="AI335" s="201"/>
-      <c r="AJ335" s="199"/>
-      <c r="AK335" s="199"/>
-      <c r="AL335" s="199"/>
-      <c r="AM335" s="201"/>
-      <c r="AN335" s="201"/>
-      <c r="AO335" s="203"/>
+      <c r="AD335" s="208"/>
+      <c r="AE335" s="208"/>
+      <c r="AF335" s="208"/>
+      <c r="AG335" s="210"/>
+      <c r="AH335" s="210"/>
+      <c r="AI335" s="210"/>
+      <c r="AJ335" s="208"/>
+      <c r="AK335" s="208"/>
+      <c r="AL335" s="208"/>
+      <c r="AM335" s="210"/>
+      <c r="AN335" s="210"/>
+      <c r="AO335" s="212"/>
       <c r="AQ335" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -37503,28 +37517,28 @@
       <c r="G336" s="71"/>
       <c r="H336" s="71"/>
       <c r="I336" s="72"/>
-      <c r="J336" s="197" t="s">
+      <c r="J336" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K336" s="196"/>
+      <c r="K336" s="205"/>
       <c r="L336" s="31"/>
       <c r="M336" s="31"/>
       <c r="N336" s="31"/>
       <c r="O336" s="31"/>
       <c r="P336" s="31"/>
       <c r="Q336" s="31"/>
-      <c r="R336" s="196" t="s">
+      <c r="R336" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S336" s="196"/>
+      <c r="S336" s="205"/>
       <c r="T336" s="31"/>
       <c r="U336" s="31"/>
       <c r="V336" s="31"/>
       <c r="W336" s="31"/>
-      <c r="X336" s="196" t="s">
+      <c r="X336" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y336" s="196"/>
+      <c r="Y336" s="205"/>
       <c r="Z336" s="31"/>
       <c r="AA336" s="31"/>
       <c r="AB336" s="31"/>
@@ -38088,18 +38102,18 @@
       <c r="AA349" s="31"/>
       <c r="AB349" s="31"/>
       <c r="AC349" s="32"/>
-      <c r="AD349" s="206"/>
-      <c r="AE349" s="206"/>
-      <c r="AF349" s="206"/>
+      <c r="AD349" s="215"/>
+      <c r="AE349" s="215"/>
+      <c r="AF349" s="215"/>
       <c r="AG349" s="26"/>
       <c r="AH349" s="26"/>
       <c r="AI349" s="26"/>
-      <c r="AJ349" s="206"/>
-      <c r="AK349" s="206"/>
-      <c r="AL349" s="206"/>
-      <c r="AM349" s="206"/>
-      <c r="AN349" s="206"/>
-      <c r="AO349" s="207"/>
+      <c r="AJ349" s="215"/>
+      <c r="AK349" s="215"/>
+      <c r="AL349" s="215"/>
+      <c r="AM349" s="215"/>
+      <c r="AN349" s="215"/>
+      <c r="AO349" s="216"/>
     </row>
     <row r="350" spans="2:43">
       <c r="B350" s="52"/>
@@ -38496,66 +38510,66 @@
       <c r="G360" s="66"/>
       <c r="H360" s="66"/>
       <c r="I360" s="17"/>
-      <c r="J360" s="205" t="s">
+      <c r="J360" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K360" s="200"/>
-      <c r="L360" s="198" t="s">
+      <c r="K360" s="209"/>
+      <c r="L360" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M360" s="198"/>
-      <c r="N360" s="198" t="s">
+      <c r="M360" s="207"/>
+      <c r="N360" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O360" s="198"/>
-      <c r="P360" s="198" t="s">
+      <c r="O360" s="207"/>
+      <c r="P360" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q360" s="198"/>
-      <c r="R360" s="198" t="s">
+      <c r="Q360" s="207"/>
+      <c r="R360" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S360" s="198"/>
-      <c r="T360" s="198" t="s">
+      <c r="S360" s="207"/>
+      <c r="T360" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U360" s="198"/>
-      <c r="V360" s="198" t="s">
+      <c r="U360" s="207"/>
+      <c r="V360" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W360" s="198"/>
-      <c r="X360" s="198" t="s">
+      <c r="W360" s="207"/>
+      <c r="X360" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y360" s="198"/>
-      <c r="Z360" s="200" t="s">
+      <c r="Y360" s="207"/>
+      <c r="Z360" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA360" s="198"/>
-      <c r="AB360" s="198" t="s">
+      <c r="AA360" s="207"/>
+      <c r="AB360" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC360" s="204"/>
-      <c r="AD360" s="198" t="s">
+      <c r="AC360" s="213"/>
+      <c r="AD360" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE360" s="198"/>
-      <c r="AF360" s="198"/>
-      <c r="AG360" s="200" t="s">
+      <c r="AE360" s="207"/>
+      <c r="AF360" s="207"/>
+      <c r="AG360" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH360" s="200"/>
-      <c r="AI360" s="200"/>
-      <c r="AJ360" s="198" t="s">
+      <c r="AH360" s="209"/>
+      <c r="AI360" s="209"/>
+      <c r="AJ360" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK360" s="198"/>
-      <c r="AL360" s="198"/>
-      <c r="AM360" s="200" t="s">
+      <c r="AK360" s="207"/>
+      <c r="AL360" s="207"/>
+      <c r="AM360" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN360" s="200"/>
-      <c r="AO360" s="202"/>
+      <c r="AN360" s="209"/>
+      <c r="AO360" s="211"/>
       <c r="AQ360" s="16">
         <f>EDATE(E361,1)</f>
         <v>31</v>
@@ -38592,18 +38606,18 @@
       <c r="AA361" s="69"/>
       <c r="AB361" s="68"/>
       <c r="AC361" s="69"/>
-      <c r="AD361" s="199"/>
-      <c r="AE361" s="199"/>
-      <c r="AF361" s="199"/>
-      <c r="AG361" s="201"/>
-      <c r="AH361" s="201"/>
-      <c r="AI361" s="201"/>
-      <c r="AJ361" s="199"/>
-      <c r="AK361" s="199"/>
-      <c r="AL361" s="199"/>
-      <c r="AM361" s="201"/>
-      <c r="AN361" s="201"/>
-      <c r="AO361" s="203"/>
+      <c r="AD361" s="208"/>
+      <c r="AE361" s="208"/>
+      <c r="AF361" s="208"/>
+      <c r="AG361" s="210"/>
+      <c r="AH361" s="210"/>
+      <c r="AI361" s="210"/>
+      <c r="AJ361" s="208"/>
+      <c r="AK361" s="208"/>
+      <c r="AL361" s="208"/>
+      <c r="AM361" s="210"/>
+      <c r="AN361" s="210"/>
+      <c r="AO361" s="212"/>
       <c r="AQ361" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -38621,28 +38635,28 @@
       <c r="G362" s="71"/>
       <c r="H362" s="71"/>
       <c r="I362" s="72"/>
-      <c r="J362" s="197" t="s">
+      <c r="J362" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K362" s="196"/>
+      <c r="K362" s="205"/>
       <c r="L362" s="31"/>
       <c r="M362" s="31"/>
       <c r="N362" s="31"/>
       <c r="O362" s="31"/>
       <c r="P362" s="31"/>
       <c r="Q362" s="31"/>
-      <c r="R362" s="196" t="s">
+      <c r="R362" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S362" s="196"/>
+      <c r="S362" s="205"/>
       <c r="T362" s="31"/>
       <c r="U362" s="31"/>
       <c r="V362" s="31"/>
       <c r="W362" s="31"/>
-      <c r="X362" s="196" t="s">
+      <c r="X362" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y362" s="196"/>
+      <c r="Y362" s="205"/>
       <c r="Z362" s="31"/>
       <c r="AA362" s="31"/>
       <c r="AB362" s="31"/>
@@ -39206,18 +39220,18 @@
       <c r="AA375" s="31"/>
       <c r="AB375" s="31"/>
       <c r="AC375" s="32"/>
-      <c r="AD375" s="206"/>
-      <c r="AE375" s="206"/>
-      <c r="AF375" s="206"/>
+      <c r="AD375" s="215"/>
+      <c r="AE375" s="215"/>
+      <c r="AF375" s="215"/>
       <c r="AG375" s="26"/>
       <c r="AH375" s="26"/>
       <c r="AI375" s="26"/>
-      <c r="AJ375" s="206"/>
-      <c r="AK375" s="206"/>
-      <c r="AL375" s="206"/>
-      <c r="AM375" s="206"/>
-      <c r="AN375" s="206"/>
-      <c r="AO375" s="207"/>
+      <c r="AJ375" s="215"/>
+      <c r="AK375" s="215"/>
+      <c r="AL375" s="215"/>
+      <c r="AM375" s="215"/>
+      <c r="AN375" s="215"/>
+      <c r="AO375" s="216"/>
     </row>
     <row r="376" spans="2:43">
       <c r="B376" s="52"/>
@@ -39614,66 +39628,66 @@
       <c r="G386" s="66"/>
       <c r="H386" s="66"/>
       <c r="I386" s="17"/>
-      <c r="J386" s="205" t="s">
+      <c r="J386" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K386" s="200"/>
-      <c r="L386" s="198" t="s">
+      <c r="K386" s="209"/>
+      <c r="L386" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M386" s="198"/>
-      <c r="N386" s="198" t="s">
+      <c r="M386" s="207"/>
+      <c r="N386" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O386" s="198"/>
-      <c r="P386" s="198" t="s">
+      <c r="O386" s="207"/>
+      <c r="P386" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q386" s="198"/>
-      <c r="R386" s="198" t="s">
+      <c r="Q386" s="207"/>
+      <c r="R386" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S386" s="198"/>
-      <c r="T386" s="198" t="s">
+      <c r="S386" s="207"/>
+      <c r="T386" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U386" s="198"/>
-      <c r="V386" s="198" t="s">
+      <c r="U386" s="207"/>
+      <c r="V386" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W386" s="198"/>
-      <c r="X386" s="198" t="s">
+      <c r="W386" s="207"/>
+      <c r="X386" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y386" s="198"/>
-      <c r="Z386" s="200" t="s">
+      <c r="Y386" s="207"/>
+      <c r="Z386" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA386" s="198"/>
-      <c r="AB386" s="198" t="s">
+      <c r="AA386" s="207"/>
+      <c r="AB386" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC386" s="204"/>
-      <c r="AD386" s="198" t="s">
+      <c r="AC386" s="213"/>
+      <c r="AD386" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE386" s="198"/>
-      <c r="AF386" s="198"/>
-      <c r="AG386" s="200" t="s">
+      <c r="AE386" s="207"/>
+      <c r="AF386" s="207"/>
+      <c r="AG386" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH386" s="200"/>
-      <c r="AI386" s="200"/>
-      <c r="AJ386" s="198" t="s">
+      <c r="AH386" s="209"/>
+      <c r="AI386" s="209"/>
+      <c r="AJ386" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK386" s="198"/>
-      <c r="AL386" s="198"/>
-      <c r="AM386" s="200" t="s">
+      <c r="AK386" s="207"/>
+      <c r="AL386" s="207"/>
+      <c r="AM386" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN386" s="200"/>
-      <c r="AO386" s="202"/>
+      <c r="AN386" s="209"/>
+      <c r="AO386" s="211"/>
       <c r="AQ386" s="16">
         <f>EDATE(E387,1)</f>
         <v>31</v>
@@ -39710,18 +39724,18 @@
       <c r="AA387" s="69"/>
       <c r="AB387" s="68"/>
       <c r="AC387" s="69"/>
-      <c r="AD387" s="199"/>
-      <c r="AE387" s="199"/>
-      <c r="AF387" s="199"/>
-      <c r="AG387" s="201"/>
-      <c r="AH387" s="201"/>
-      <c r="AI387" s="201"/>
-      <c r="AJ387" s="199"/>
-      <c r="AK387" s="199"/>
-      <c r="AL387" s="199"/>
-      <c r="AM387" s="201"/>
-      <c r="AN387" s="201"/>
-      <c r="AO387" s="203"/>
+      <c r="AD387" s="208"/>
+      <c r="AE387" s="208"/>
+      <c r="AF387" s="208"/>
+      <c r="AG387" s="210"/>
+      <c r="AH387" s="210"/>
+      <c r="AI387" s="210"/>
+      <c r="AJ387" s="208"/>
+      <c r="AK387" s="208"/>
+      <c r="AL387" s="208"/>
+      <c r="AM387" s="210"/>
+      <c r="AN387" s="210"/>
+      <c r="AO387" s="212"/>
       <c r="AQ387" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -39739,28 +39753,28 @@
       <c r="G388" s="71"/>
       <c r="H388" s="71"/>
       <c r="I388" s="72"/>
-      <c r="J388" s="197" t="s">
+      <c r="J388" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K388" s="196"/>
+      <c r="K388" s="205"/>
       <c r="L388" s="31"/>
       <c r="M388" s="31"/>
       <c r="N388" s="31"/>
       <c r="O388" s="31"/>
       <c r="P388" s="31"/>
       <c r="Q388" s="31"/>
-      <c r="R388" s="196" t="s">
+      <c r="R388" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S388" s="196"/>
+      <c r="S388" s="205"/>
       <c r="T388" s="31"/>
       <c r="U388" s="31"/>
       <c r="V388" s="31"/>
       <c r="W388" s="31"/>
-      <c r="X388" s="196" t="s">
+      <c r="X388" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y388" s="196"/>
+      <c r="Y388" s="205"/>
       <c r="Z388" s="31"/>
       <c r="AA388" s="31"/>
       <c r="AB388" s="31"/>
@@ -40324,18 +40338,18 @@
       <c r="AA401" s="31"/>
       <c r="AB401" s="31"/>
       <c r="AC401" s="32"/>
-      <c r="AD401" s="206"/>
-      <c r="AE401" s="206"/>
-      <c r="AF401" s="206"/>
+      <c r="AD401" s="215"/>
+      <c r="AE401" s="215"/>
+      <c r="AF401" s="215"/>
       <c r="AG401" s="26"/>
       <c r="AH401" s="26"/>
       <c r="AI401" s="26"/>
-      <c r="AJ401" s="206"/>
-      <c r="AK401" s="206"/>
-      <c r="AL401" s="206"/>
-      <c r="AM401" s="206"/>
-      <c r="AN401" s="206"/>
-      <c r="AO401" s="207"/>
+      <c r="AJ401" s="215"/>
+      <c r="AK401" s="215"/>
+      <c r="AL401" s="215"/>
+      <c r="AM401" s="215"/>
+      <c r="AN401" s="215"/>
+      <c r="AO401" s="216"/>
     </row>
     <row r="402" spans="2:43">
       <c r="B402" s="52"/>
@@ -40732,66 +40746,66 @@
       <c r="G412" s="66"/>
       <c r="H412" s="66"/>
       <c r="I412" s="17"/>
-      <c r="J412" s="205" t="s">
+      <c r="J412" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="K412" s="200"/>
-      <c r="L412" s="198" t="s">
+      <c r="K412" s="209"/>
+      <c r="L412" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="M412" s="198"/>
-      <c r="N412" s="198" t="s">
+      <c r="M412" s="207"/>
+      <c r="N412" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="O412" s="198"/>
-      <c r="P412" s="198" t="s">
+      <c r="O412" s="207"/>
+      <c r="P412" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="Q412" s="198"/>
-      <c r="R412" s="198" t="s">
+      <c r="Q412" s="207"/>
+      <c r="R412" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="S412" s="198"/>
-      <c r="T412" s="198" t="s">
+      <c r="S412" s="207"/>
+      <c r="T412" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="U412" s="198"/>
-      <c r="V412" s="198" t="s">
+      <c r="U412" s="207"/>
+      <c r="V412" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="W412" s="198"/>
-      <c r="X412" s="198" t="s">
+      <c r="W412" s="207"/>
+      <c r="X412" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Y412" s="198"/>
-      <c r="Z412" s="200" t="s">
+      <c r="Y412" s="207"/>
+      <c r="Z412" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AA412" s="198"/>
-      <c r="AB412" s="198" t="s">
+      <c r="AA412" s="207"/>
+      <c r="AB412" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AC412" s="204"/>
-      <c r="AD412" s="198" t="s">
+      <c r="AC412" s="213"/>
+      <c r="AD412" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AE412" s="198"/>
-      <c r="AF412" s="198"/>
-      <c r="AG412" s="200" t="s">
+      <c r="AE412" s="207"/>
+      <c r="AF412" s="207"/>
+      <c r="AG412" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AH412" s="200"/>
-      <c r="AI412" s="200"/>
-      <c r="AJ412" s="198" t="s">
+      <c r="AH412" s="209"/>
+      <c r="AI412" s="209"/>
+      <c r="AJ412" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AK412" s="198"/>
-      <c r="AL412" s="198"/>
-      <c r="AM412" s="200" t="s">
+      <c r="AK412" s="207"/>
+      <c r="AL412" s="207"/>
+      <c r="AM412" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="AN412" s="200"/>
-      <c r="AO412" s="202"/>
+      <c r="AN412" s="209"/>
+      <c r="AO412" s="211"/>
       <c r="AQ412" s="16">
         <f>EDATE(E413,1)</f>
         <v>31</v>
@@ -40828,18 +40842,18 @@
       <c r="AA413" s="69"/>
       <c r="AB413" s="68"/>
       <c r="AC413" s="69"/>
-      <c r="AD413" s="199"/>
-      <c r="AE413" s="199"/>
-      <c r="AF413" s="199"/>
-      <c r="AG413" s="201"/>
-      <c r="AH413" s="201"/>
-      <c r="AI413" s="201"/>
-      <c r="AJ413" s="199"/>
-      <c r="AK413" s="199"/>
-      <c r="AL413" s="199"/>
-      <c r="AM413" s="201"/>
-      <c r="AN413" s="201"/>
-      <c r="AO413" s="203"/>
+      <c r="AD413" s="208"/>
+      <c r="AE413" s="208"/>
+      <c r="AF413" s="208"/>
+      <c r="AG413" s="210"/>
+      <c r="AH413" s="210"/>
+      <c r="AI413" s="210"/>
+      <c r="AJ413" s="208"/>
+      <c r="AK413" s="208"/>
+      <c r="AL413" s="208"/>
+      <c r="AM413" s="210"/>
+      <c r="AN413" s="210"/>
+      <c r="AO413" s="212"/>
       <c r="AQ413" s="16">
         <f ca="1">EDATE(TODAY(),1)</f>
         <v>45956</v>
@@ -40857,28 +40871,28 @@
       <c r="G414" s="71"/>
       <c r="H414" s="71"/>
       <c r="I414" s="72"/>
-      <c r="J414" s="197" t="s">
+      <c r="J414" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="K414" s="196"/>
+      <c r="K414" s="205"/>
       <c r="L414" s="31"/>
       <c r="M414" s="31"/>
       <c r="N414" s="31"/>
       <c r="O414" s="31"/>
       <c r="P414" s="31"/>
       <c r="Q414" s="31"/>
-      <c r="R414" s="196" t="s">
+      <c r="R414" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="S414" s="196"/>
+      <c r="S414" s="205"/>
       <c r="T414" s="31"/>
       <c r="U414" s="31"/>
       <c r="V414" s="31"/>
       <c r="W414" s="31"/>
-      <c r="X414" s="196" t="s">
+      <c r="X414" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="Y414" s="196"/>
+      <c r="Y414" s="205"/>
       <c r="Z414" s="31"/>
       <c r="AA414" s="31"/>
       <c r="AB414" s="31"/>
